--- a/lindqvist_list/workdir/results.xlsx
+++ b/lindqvist_list/workdir/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>csfR</t>
   </si>
@@ -207,6 +207,156 @@
   </si>
   <si>
     <t>X50</t>
+  </si>
+  <si>
+    <t>X51</t>
+  </si>
+  <si>
+    <t>X52</t>
+  </si>
+  <si>
+    <t>X53</t>
+  </si>
+  <si>
+    <t>X54</t>
+  </si>
+  <si>
+    <t>X55</t>
+  </si>
+  <si>
+    <t>X56</t>
+  </si>
+  <si>
+    <t>X57</t>
+  </si>
+  <si>
+    <t>X58</t>
+  </si>
+  <si>
+    <t>X59</t>
+  </si>
+  <si>
+    <t>X60</t>
+  </si>
+  <si>
+    <t>X61</t>
+  </si>
+  <si>
+    <t>X62</t>
+  </si>
+  <si>
+    <t>X63</t>
+  </si>
+  <si>
+    <t>X64</t>
+  </si>
+  <si>
+    <t>X65</t>
+  </si>
+  <si>
+    <t>X66</t>
+  </si>
+  <si>
+    <t>X67</t>
+  </si>
+  <si>
+    <t>X68</t>
+  </si>
+  <si>
+    <t>X69</t>
+  </si>
+  <si>
+    <t>X70</t>
+  </si>
+  <si>
+    <t>X71</t>
+  </si>
+  <si>
+    <t>X72</t>
+  </si>
+  <si>
+    <t>X73</t>
+  </si>
+  <si>
+    <t>X74</t>
+  </si>
+  <si>
+    <t>X75</t>
+  </si>
+  <si>
+    <t>X76</t>
+  </si>
+  <si>
+    <t>X77</t>
+  </si>
+  <si>
+    <t>X78</t>
+  </si>
+  <si>
+    <t>X79</t>
+  </si>
+  <si>
+    <t>X80</t>
+  </si>
+  <si>
+    <t>X81</t>
+  </si>
+  <si>
+    <t>X82</t>
+  </si>
+  <si>
+    <t>X83</t>
+  </si>
+  <si>
+    <t>X84</t>
+  </si>
+  <si>
+    <t>X85</t>
+  </si>
+  <si>
+    <t>X86</t>
+  </si>
+  <si>
+    <t>X87</t>
+  </si>
+  <si>
+    <t>X88</t>
+  </si>
+  <si>
+    <t>X89</t>
+  </si>
+  <si>
+    <t>X90</t>
+  </si>
+  <si>
+    <t>X91</t>
+  </si>
+  <si>
+    <t>X92</t>
+  </si>
+  <si>
+    <t>X93</t>
+  </si>
+  <si>
+    <t>X94</t>
+  </si>
+  <si>
+    <t>X95</t>
+  </si>
+  <si>
+    <t>X96</t>
+  </si>
+  <si>
+    <t>X97</t>
+  </si>
+  <si>
+    <t>X98</t>
+  </si>
+  <si>
+    <t>X99</t>
+  </si>
+  <si>
+    <t>X100</t>
   </si>
 </sst>
 </file>
@@ -310,49 +460,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>4.383727537318168E-8</v>
+        <v>9.988662414820612E-9</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5368925904044694E-7</v>
+        <v>4.2476005585971515E-10</v>
       </c>
       <c r="D2" t="n">
-        <v>7.382525316111594E-9</v>
+        <v>6.440626984636234E-10</v>
       </c>
       <c r="E2" t="n">
-        <v>6.621869671903543E-9</v>
+        <v>2.6958771101134083E-10</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2767639418404124E-9</v>
+        <v>2.2184444664885748E-11</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2472800360463251E-8</v>
+        <v>3.278150949732254E-10</v>
       </c>
       <c r="H2" t="n">
-        <v>5.139430644922876E-10</v>
+        <v>4.3071523828665763E-13</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1450182773946602E-8</v>
+        <v>1.5381863833592874E-10</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3486613626054134E-8</v>
+        <v>1.8980604841236534E-9</v>
       </c>
       <c r="K2" t="n">
-        <v>1.340502933581427E-7</v>
+        <v>4.4457082014123975E-8</v>
       </c>
       <c r="L2" t="n">
-        <v>2.323402240493712E-9</v>
+        <v>3.17460661751496E-11</v>
       </c>
       <c r="M2" t="n">
-        <v>6.440829385358646E-9</v>
+        <v>4.837137972647118E-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3909217356489806E-8</v>
+        <v>9.851798898319477E-10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.383787886805096E-9</v>
+        <v>8.599663093992066E-13</v>
       </c>
       <c r="P2" t="n">
-        <v>7.411748826233167E-14</v>
+        <v>9.693510855882659E-16</v>
       </c>
     </row>
     <row r="3">
@@ -360,49 +510,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>3.936271206196954E-8</v>
+        <v>1.8535117031832967E-9</v>
       </c>
       <c r="C3" t="n">
-        <v>9.050385342070876E-8</v>
+        <v>6.616136600124614E-10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.613925901013427E-9</v>
+        <v>1.0208690940540224E-9</v>
       </c>
       <c r="E3" t="n">
-        <v>2.7776598867507714E-8</v>
+        <v>1.5443456809734916E-11</v>
       </c>
       <c r="F3" t="n">
-        <v>7.2352033505279234E-9</v>
+        <v>2.3306875283223945E-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.776095184730533E-8</v>
+        <v>9.212680171531756E-11</v>
       </c>
       <c r="H3" t="n">
-        <v>5.275615880166472E-10</v>
+        <v>1.2768629981520522E-12</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7546641056003744E-8</v>
+        <v>1.8392052462313127E-10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8779935351823915E-8</v>
+        <v>1.8774233686178434E-10</v>
       </c>
       <c r="K3" t="n">
-        <v>8.611478262221955E-7</v>
+        <v>9.700906775115155E-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2377406111899388E-8</v>
+        <v>1.647194472411339E-9</v>
       </c>
       <c r="M3" t="n">
-        <v>4.410056500375526E-9</v>
+        <v>9.904212221540052E-12</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2920178220516157E-8</v>
+        <v>9.492902246727091E-11</v>
       </c>
       <c r="O3" t="n">
-        <v>9.34265611652374E-10</v>
+        <v>8.112584733604212E-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4118625650998464E-13</v>
+        <v>1.00871674545254E-15</v>
       </c>
     </row>
     <row r="4">
@@ -410,49 +560,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2.5168243553422888E-8</v>
+        <v>4.6047500099571743E-10</v>
       </c>
       <c r="C4" t="n">
-        <v>3.328384303940429E-8</v>
+        <v>3.2473372564976084E-9</v>
       </c>
       <c r="D4" t="n">
-        <v>7.795187972743707E-9</v>
+        <v>2.584041880770057E-10</v>
       </c>
       <c r="E4" t="n">
-        <v>3.1282838272985826E-9</v>
+        <v>7.864543935120788E-11</v>
       </c>
       <c r="F4" t="n">
-        <v>3.1796845835534307E-9</v>
+        <v>6.633640551274116E-10</v>
       </c>
       <c r="G4" t="n">
-        <v>2.784088307318902E-8</v>
+        <v>7.43865225466254E-10</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4785504219657014E-9</v>
+        <v>1.3615362917853484E-11</v>
       </c>
       <c r="I4" t="n">
-        <v>9.255318739882023E-9</v>
+        <v>8.359930511192612E-10</v>
       </c>
       <c r="J4" t="n">
-        <v>3.06694996549893E-8</v>
+        <v>9.3950303474677E-9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.431586414167264E-7</v>
+        <v>3.2821659068745E-10</v>
       </c>
       <c r="L4" t="n">
-        <v>3.7028915681258855E-8</v>
+        <v>5.3227781861508006E-11</v>
       </c>
       <c r="M4" t="n">
-        <v>3.363395519211184E-9</v>
+        <v>3.2088171530928104E-10</v>
       </c>
       <c r="N4" t="n">
-        <v>1.6782735817359445E-8</v>
+        <v>3.451929320919534E-10</v>
       </c>
       <c r="O4" t="n">
-        <v>4.743737020479299E-10</v>
+        <v>4.708702973727267E-11</v>
       </c>
       <c r="P4" t="n">
-        <v>3.40178826154964E-13</v>
+        <v>3.900178471666952E-16</v>
       </c>
     </row>
     <row r="5">
@@ -460,49 +610,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>3.8751209949358496E-8</v>
+        <v>3.2619033486771104E-8</v>
       </c>
       <c r="C5" t="n">
-        <v>2.8572938010789278E-8</v>
+        <v>2.430043783262204E-7</v>
       </c>
       <c r="D5" t="n">
-        <v>3.036033769344888E-8</v>
+        <v>7.891614568018756E-11</v>
       </c>
       <c r="E5" t="n">
-        <v>3.1347283797360407E-9</v>
+        <v>1.0587115559947601E-10</v>
       </c>
       <c r="F5" t="n">
-        <v>2.8691292776563633E-9</v>
+        <v>5.997364920721057E-11</v>
       </c>
       <c r="G5" t="n">
-        <v>8.139635572629067E-9</v>
+        <v>2.0751396129798367E-10</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0310855263653565E-9</v>
+        <v>1.0037678146368918E-11</v>
       </c>
       <c r="I5" t="n">
-        <v>3.0558693900547844E-7</v>
+        <v>3.4311944506379322E-9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.216200683332089E-8</v>
+        <v>1.391360507555274E-10</v>
       </c>
       <c r="K5" t="n">
-        <v>5.480821296901535E-7</v>
+        <v>1.1598046236361917E-10</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4775447654380647E-8</v>
+        <v>3.6292523038379436E-11</v>
       </c>
       <c r="M5" t="n">
-        <v>2.5929233146097326E-9</v>
+        <v>1.5097726159807269E-9</v>
       </c>
       <c r="N5" t="n">
-        <v>1.7491872988294476E-8</v>
+        <v>2.1746097737287824E-10</v>
       </c>
       <c r="O5" t="n">
-        <v>8.038214097332097E-10</v>
+        <v>2.0512905828305726E-11</v>
       </c>
       <c r="P5" t="n">
-        <v>6.298461088656071E-13</v>
+        <v>2.7263596419492077E-16</v>
       </c>
     </row>
     <row r="6">
@@ -510,49 +660,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>2.0786278468621739E-7</v>
+        <v>1.485809750159599E-10</v>
       </c>
       <c r="C6" t="n">
-        <v>6.805463447602539E-8</v>
+        <v>4.82086373160846E-10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.661537143102213E-8</v>
+        <v>1.7049471812074492E-10</v>
       </c>
       <c r="E6" t="n">
-        <v>5.319211519187429E-9</v>
+        <v>6.179139015044605E-11</v>
       </c>
       <c r="F6" t="n">
-        <v>3.25244340114447E-9</v>
+        <v>9.304771760207203E-12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.119938005673656E-8</v>
+        <v>4.4737057764755213E-10</v>
       </c>
       <c r="H6" t="n">
-        <v>3.439872197879042E-10</v>
+        <v>3.007804375885677E-12</v>
       </c>
       <c r="I6" t="n">
-        <v>1.656091190097957E-8</v>
+        <v>3.8385486929406013E-10</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4628390174369255E-8</v>
+        <v>1.968750534233751E-11</v>
       </c>
       <c r="K6" t="n">
-        <v>2.0267177135566505E-7</v>
+        <v>3.3683942959720424E-10</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2477214681256436E-9</v>
+        <v>7.899304971107015E-12</v>
       </c>
       <c r="M6" t="n">
-        <v>3.4722623258725875E-9</v>
+        <v>3.12997472055254E-11</v>
       </c>
       <c r="N6" t="n">
-        <v>3.046774449500231E-8</v>
+        <v>5.075338202359591E-11</v>
       </c>
       <c r="O6" t="n">
-        <v>6.9350988593504E-10</v>
+        <v>8.616714605129975E-14</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8240248870853375E-13</v>
+        <v>2.009642751364244E-17</v>
       </c>
     </row>
     <row r="7">
@@ -560,49 +710,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>1.874287947422115E-8</v>
+        <v>1.5047116999561363E-10</v>
       </c>
       <c r="C7" t="n">
-        <v>3.727174074265694E-8</v>
+        <v>2.2027230647555283E-10</v>
       </c>
       <c r="D7" t="n">
-        <v>7.163927712344838E-9</v>
+        <v>1.790726067909963E-9</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2902182506152727E-8</v>
+        <v>3.9486138492977E-11</v>
       </c>
       <c r="F7" t="n">
-        <v>4.537229702143397E-9</v>
+        <v>2.705289566711676E-10</v>
       </c>
       <c r="G7" t="n">
-        <v>8.421957988263805E-9</v>
+        <v>1.6672733255041167E-9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.5273485556420055E-10</v>
+        <v>9.500238648624954E-12</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2190540407933438E-8</v>
+        <v>2.41207310591912E-10</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1916593518556984E-7</v>
+        <v>8.378724135106733E-9</v>
       </c>
       <c r="K7" t="n">
-        <v>6.364116261749779E-7</v>
+        <v>8.545498242189849E-10</v>
       </c>
       <c r="L7" t="n">
-        <v>2.6656519763749487E-9</v>
+        <v>5.872492350577534E-10</v>
       </c>
       <c r="M7" t="n">
-        <v>2.846246759480389E-9</v>
+        <v>3.1519246860878175E-10</v>
       </c>
       <c r="N7" t="n">
-        <v>1.729162683742614E-8</v>
+        <v>5.0299281089939725E-11</v>
       </c>
       <c r="O7" t="n">
-        <v>6.707732513507822E-9</v>
+        <v>3.6697043631645343E-13</v>
       </c>
       <c r="P7" t="n">
-        <v>3.177683097777321E-13</v>
+        <v>3.0398049424404497E-16</v>
       </c>
     </row>
     <row r="8">
@@ -610,49 +760,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>1.4496881326689665E-8</v>
+        <v>1.0640619948012835E-10</v>
       </c>
       <c r="C8" t="n">
-        <v>6.991124361469158E-8</v>
+        <v>7.691755809868553E-8</v>
       </c>
       <c r="D8" t="n">
-        <v>6.836165862328539E-9</v>
+        <v>1.0033589292920614E-10</v>
       </c>
       <c r="E8" t="n">
-        <v>7.251267936931016E-8</v>
+        <v>6.503882857810844E-11</v>
       </c>
       <c r="F8" t="n">
-        <v>6.036299737465524E-9</v>
+        <v>4.3786964130095855E-12</v>
       </c>
       <c r="G8" t="n">
-        <v>1.329373482735767E-8</v>
+        <v>1.1060615811140724E-10</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7029348289550875E-10</v>
+        <v>4.281293391854225E-13</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2258542301532558E-8</v>
+        <v>1.1298914307882487E-8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.9971021122642146E-8</v>
+        <v>5.670735945689414E-11</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1713215835932914E-7</v>
+        <v>7.483339124168196E-11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5328015368718304E-8</v>
+        <v>1.1573329119717574E-10</v>
       </c>
       <c r="M8" t="n">
-        <v>6.799680094143623E-9</v>
+        <v>3.094558416300686E-11</v>
       </c>
       <c r="N8" t="n">
-        <v>1.2254539875394255E-8</v>
+        <v>2.2769212257405177E-9</v>
       </c>
       <c r="O8" t="n">
-        <v>2.058477797305381E-10</v>
+        <v>1.0605789850035228E-12</v>
       </c>
       <c r="P8" t="n">
-        <v>8.834369415529922E-14</v>
+        <v>3.2429470702921484E-16</v>
       </c>
     </row>
     <row r="9">
@@ -660,49 +810,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>5.4706581458356504E-8</v>
+        <v>1.1687841300045423E-8</v>
       </c>
       <c r="C9" t="n">
-        <v>1.4436937430628068E-7</v>
+        <v>1.8006762448381122E-10</v>
       </c>
       <c r="D9" t="n">
-        <v>5.571823984486831E-9</v>
+        <v>8.777585056302143E-10</v>
       </c>
       <c r="E9" t="n">
-        <v>1.552678767274069E-8</v>
+        <v>3.2914427418201555E-10</v>
       </c>
       <c r="F9" t="n">
-        <v>4.643178445751135E-9</v>
+        <v>5.209380856705581E-11</v>
       </c>
       <c r="G9" t="n">
-        <v>8.641632702532467E-9</v>
+        <v>6.461215132154555E-10</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9156816160193495E-10</v>
+        <v>4.659505860294088E-12</v>
       </c>
       <c r="I9" t="n">
-        <v>1.911332353646229E-8</v>
+        <v>7.429404717991186E-10</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2514458694327594E-8</v>
+        <v>5.671353041591521E-9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5289936138478383E-7</v>
+        <v>4.5870400468356855E-10</v>
       </c>
       <c r="L9" t="n">
-        <v>1.1811500270757526E-8</v>
+        <v>1.367126652190582E-9</v>
       </c>
       <c r="M9" t="n">
-        <v>8.807487805572826E-9</v>
+        <v>1.2596051986585344E-10</v>
       </c>
       <c r="N9" t="n">
-        <v>1.132324315703269E-8</v>
+        <v>2.393103388207439E-10</v>
       </c>
       <c r="O9" t="n">
-        <v>5.98076079434907E-10</v>
+        <v>2.0047282356685905E-12</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1826337825191432E-13</v>
+        <v>6.348172540552885E-17</v>
       </c>
     </row>
     <row r="10">
@@ -710,49 +860,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>3.383221391535033E-8</v>
+        <v>4.183531584507287E-11</v>
       </c>
       <c r="C10" t="n">
-        <v>4.241584976139712E-8</v>
+        <v>3.047054677992234E-10</v>
       </c>
       <c r="D10" t="n">
-        <v>3.736158369302685E-8</v>
+        <v>1.9926213645947504E-9</v>
       </c>
       <c r="E10" t="n">
-        <v>2.7619564870234E-8</v>
+        <v>1.394815475480541E-10</v>
       </c>
       <c r="F10" t="n">
-        <v>3.6132618127734522E-9</v>
+        <v>3.938695359797988E-9</v>
       </c>
       <c r="G10" t="n">
-        <v>6.459094866765141E-9</v>
+        <v>2.1933426879682314E-9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8342388773459504E-10</v>
+        <v>9.545278219153883E-11</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8259832403381613E-8</v>
+        <v>1.7247103162818681E-10</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4475537308394964E-8</v>
+        <v>7.630560431642555E-9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.24840653698072E-7</v>
+        <v>5.335557413101327E-10</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4916903341581364E-9</v>
+        <v>5.052706361382812E-11</v>
       </c>
       <c r="M10" t="n">
-        <v>6.996711647939265E-9</v>
+        <v>2.112965941728677E-9</v>
       </c>
       <c r="N10" t="n">
-        <v>9.035960438967224E-8</v>
+        <v>2.5701593600052656E-9</v>
       </c>
       <c r="O10" t="n">
-        <v>4.1951719493788766E-10</v>
+        <v>1.4753985215779935E-12</v>
       </c>
       <c r="P10" t="n">
-        <v>1.896867677937999E-13</v>
+        <v>5.165718557367614E-15</v>
       </c>
     </row>
     <row r="11">
@@ -760,49 +910,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.7080543431027362E-8</v>
+        <v>1.2990047584721949E-8</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0631504060317724E-7</v>
+        <v>1.7552161546340977E-9</v>
       </c>
       <c r="D11" t="n">
-        <v>1.0508315889649215E-8</v>
+        <v>2.590683899518081E-10</v>
       </c>
       <c r="E11" t="n">
-        <v>5.603348606091071E-9</v>
+        <v>9.633364735597771E-12</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0873753989889318E-8</v>
+        <v>3.6750346876918986E-10</v>
       </c>
       <c r="G11" t="n">
-        <v>2.072561032446767E-8</v>
+        <v>5.225950906953191E-11</v>
       </c>
       <c r="H11" t="n">
-        <v>9.234776367425317E-10</v>
+        <v>1.6284958265522503E-10</v>
       </c>
       <c r="I11" t="n">
-        <v>8.413914973051863E-9</v>
+        <v>1.2313033080312112E-7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.431969525687899E-8</v>
+        <v>6.988243174859606E-10</v>
       </c>
       <c r="K11" t="n">
-        <v>5.81944649486865E-7</v>
+        <v>1.9101017718343073E-10</v>
       </c>
       <c r="L11" t="n">
-        <v>5.798074571888372E-9</v>
+        <v>3.555666070648766E-11</v>
       </c>
       <c r="M11" t="n">
-        <v>4.493917815873743E-9</v>
+        <v>1.4360975123164767E-10</v>
       </c>
       <c r="N11" t="n">
-        <v>1.604347353385859E-8</v>
+        <v>6.86264819394387E-10</v>
       </c>
       <c r="O11" t="n">
-        <v>8.628581988055195E-10</v>
+        <v>2.4377923157841487E-11</v>
       </c>
       <c r="P11" t="n">
-        <v>7.924931795197155E-14</v>
+        <v>5.415299832642869E-15</v>
       </c>
     </row>
     <row r="12">
@@ -810,49 +960,49 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>6.817275173810085E-8</v>
+        <v>8.690293576792903E-9</v>
       </c>
       <c r="C12" t="n">
-        <v>4.130421506619794E-8</v>
+        <v>7.653918567056592E-8</v>
       </c>
       <c r="D12" t="n">
-        <v>5.003002647236107E-9</v>
+        <v>2.8926256879041797E-9</v>
       </c>
       <c r="E12" t="n">
-        <v>4.6847103096772415E-8</v>
+        <v>2.3206461875858236E-11</v>
       </c>
       <c r="F12" t="n">
-        <v>6.974540047296507E-9</v>
+        <v>9.920329961597768E-10</v>
       </c>
       <c r="G12" t="n">
-        <v>2.981646616815001E-8</v>
+        <v>4.3661938030586654E-10</v>
       </c>
       <c r="H12" t="n">
-        <v>9.578908652862776E-10</v>
+        <v>7.625928321879627E-12</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6536831341140372E-8</v>
+        <v>8.11473458326812E-10</v>
       </c>
       <c r="J12" t="n">
-        <v>4.875434599432332E-8</v>
+        <v>1.6154719742420674E-9</v>
       </c>
       <c r="K12" t="n">
-        <v>1.347293333397091E-7</v>
+        <v>3.8473441061232187E-10</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5013179173888206E-8</v>
+        <v>3.603766541748217E-11</v>
       </c>
       <c r="M12" t="n">
-        <v>8.735220578576496E-9</v>
+        <v>2.985244555106375E-8</v>
       </c>
       <c r="N12" t="n">
-        <v>1.0232572468155556E-8</v>
+        <v>2.606201883406894E-7</v>
       </c>
       <c r="O12" t="n">
-        <v>4.3411291004665645E-10</v>
+        <v>3.381598978842083E-13</v>
       </c>
       <c r="P12" t="n">
-        <v>1.0335667481344982E-13</v>
+        <v>2.6149271735101583E-14</v>
       </c>
     </row>
     <row r="13">
@@ -860,49 +1010,49 @@
         <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>1.3360310065149021E-8</v>
+        <v>6.561413175751612E-10</v>
       </c>
       <c r="C13" t="n">
-        <v>3.6546751658590854E-8</v>
+        <v>3.9038559003088305E-9</v>
       </c>
       <c r="D13" t="n">
-        <v>8.179278503162495E-9</v>
+        <v>8.466135987939109E-11</v>
       </c>
       <c r="E13" t="n">
-        <v>1.2468024905420893E-8</v>
+        <v>1.4591119504239584E-10</v>
       </c>
       <c r="F13" t="n">
-        <v>5.695519401683867E-9</v>
+        <v>1.8762124740611253E-11</v>
       </c>
       <c r="G13" t="n">
-        <v>7.821907293564282E-9</v>
+        <v>6.914582627851907E-10</v>
       </c>
       <c r="H13" t="n">
-        <v>1.9640469286619374E-10</v>
+        <v>2.892101565813427E-11</v>
       </c>
       <c r="I13" t="n">
-        <v>1.1673197093081676E-8</v>
+        <v>3.299439292103985E-10</v>
       </c>
       <c r="J13" t="n">
-        <v>3.17583578206704E-8</v>
+        <v>3.5350873396086114E-9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1414435131234735E-7</v>
+        <v>9.741739092618206E-9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.0284210862689983E-8</v>
+        <v>8.710656239250286E-10</v>
       </c>
       <c r="M13" t="n">
-        <v>2.914551667589569E-9</v>
+        <v>9.063317443654441E-11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.4151482879880244E-8</v>
+        <v>2.8944744749758336E-10</v>
       </c>
       <c r="O13" t="n">
-        <v>4.307826411057017E-10</v>
+        <v>2.406992555690599E-13</v>
       </c>
       <c r="P13" t="n">
-        <v>1.0829582787319006E-13</v>
+        <v>8.756955140097792E-17</v>
       </c>
     </row>
     <row r="14">
@@ -910,49 +1060,49 @@
         <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>5.174591125098617E-8</v>
+        <v>4.621505658990208E-9</v>
       </c>
       <c r="C14" t="n">
-        <v>2.515650922309593E-8</v>
+        <v>1.7172748091278749E-9</v>
       </c>
       <c r="D14" t="n">
-        <v>8.030972795538913E-9</v>
+        <v>1.6196697962184822E-8</v>
       </c>
       <c r="E14" t="n">
-        <v>2.2292468872296776E-8</v>
+        <v>1.7400944096945007E-11</v>
       </c>
       <c r="F14" t="n">
-        <v>4.8106317433794665E-9</v>
+        <v>2.510205182426794E-10</v>
       </c>
       <c r="G14" t="n">
-        <v>2.310326374646467E-8</v>
+        <v>8.45866246921645E-11</v>
       </c>
       <c r="H14" t="n">
-        <v>3.483713834835577E-10</v>
+        <v>5.740752001276266E-12</v>
       </c>
       <c r="I14" t="n">
-        <v>2.623666162828602E-8</v>
+        <v>5.431116644726716E-11</v>
       </c>
       <c r="J14" t="n">
-        <v>2.18847146089969E-8</v>
+        <v>4.2434419140452317E-10</v>
       </c>
       <c r="K14" t="n">
-        <v>2.8328772091958167E-7</v>
+        <v>5.752695288429961E-10</v>
       </c>
       <c r="L14" t="n">
-        <v>4.742117905795611E-9</v>
+        <v>1.2958856244787706E-9</v>
       </c>
       <c r="M14" t="n">
-        <v>2.8661346337581976E-9</v>
+        <v>4.850089373443021E-9</v>
       </c>
       <c r="N14" t="n">
-        <v>1.5403295226057467E-8</v>
+        <v>6.98607151989039E-10</v>
       </c>
       <c r="O14" t="n">
-        <v>8.246752506193642E-10</v>
+        <v>6.512192966705869E-12</v>
       </c>
       <c r="P14" t="n">
-        <v>7.01564048869382E-14</v>
+        <v>2.6553638728524784E-16</v>
       </c>
     </row>
     <row r="15">
@@ -960,49 +1110,49 @@
         <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>3.177348719345558E-8</v>
+        <v>3.4943101827037526E-10</v>
       </c>
       <c r="C15" t="n">
-        <v>2.972828505324264E-8</v>
+        <v>2.218660305113723E-10</v>
       </c>
       <c r="D15" t="n">
-        <v>9.38200232982656E-9</v>
+        <v>3.5747008928539117E-10</v>
       </c>
       <c r="E15" t="n">
-        <v>8.348044294096012E-9</v>
+        <v>6.991941319794585E-12</v>
       </c>
       <c r="F15" t="n">
-        <v>7.312998339229416E-9</v>
+        <v>7.746086188746922E-11</v>
       </c>
       <c r="G15" t="n">
-        <v>1.4632354177484182E-8</v>
+        <v>3.6704622464749946E-11</v>
       </c>
       <c r="H15" t="n">
-        <v>8.620088718064373E-10</v>
+        <v>2.0358979932543157E-11</v>
       </c>
       <c r="I15" t="n">
-        <v>3.191596777745757E-8</v>
+        <v>1.221260860165802E-10</v>
       </c>
       <c r="J15" t="n">
-        <v>7.950805108802018E-8</v>
+        <v>3.4682091967205173E-9</v>
       </c>
       <c r="K15" t="n">
-        <v>4.944925658525363E-7</v>
+        <v>2.595919449693568E-10</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6065416526592458E-8</v>
+        <v>9.72815267246525E-10</v>
       </c>
       <c r="M15" t="n">
-        <v>7.212321349037422E-9</v>
+        <v>6.371180922205365E-10</v>
       </c>
       <c r="N15" t="n">
-        <v>1.9527976118897946E-8</v>
+        <v>2.3150081518854485E-10</v>
       </c>
       <c r="O15" t="n">
-        <v>9.187511118369649E-9</v>
+        <v>9.744664363120312E-11</v>
       </c>
       <c r="P15" t="n">
-        <v>2.7943063899689403E-14</v>
+        <v>1.0301094606624212E-13</v>
       </c>
     </row>
     <row r="16">
@@ -1010,49 +1160,49 @@
         <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>7.043060851063073E-8</v>
+        <v>3.9425843383107246E-10</v>
       </c>
       <c r="C16" t="n">
-        <v>2.5582263910421563E-8</v>
+        <v>1.0400622715561266E-8</v>
       </c>
       <c r="D16" t="n">
-        <v>4.010580847810461E-9</v>
+        <v>1.5912270517918E-10</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0346598698748655E-8</v>
+        <v>5.1047127963672415E-11</v>
       </c>
       <c r="F16" t="n">
-        <v>2.7156439349583008E-9</v>
+        <v>1.61832888644278E-10</v>
       </c>
       <c r="G16" t="n">
-        <v>5.3973384636006646E-8</v>
+        <v>3.074203879963428E-10</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9369782164619415E-10</v>
+        <v>2.223192398771743E-11</v>
       </c>
       <c r="I16" t="n">
-        <v>2.0514474379293085E-8</v>
+        <v>4.1485995738293225E-10</v>
       </c>
       <c r="J16" t="n">
-        <v>9.163697317890108E-8</v>
+        <v>1.872295696565885E-9</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8405686535215985E-7</v>
+        <v>5.300577801286217E-9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4085811862825056E-8</v>
+        <v>4.05524136446558E-10</v>
       </c>
       <c r="M16" t="n">
-        <v>1.0984193349602304E-8</v>
+        <v>1.2244008288303547E-10</v>
       </c>
       <c r="N16" t="n">
-        <v>1.182027144314601E-8</v>
+        <v>7.551284432520621E-10</v>
       </c>
       <c r="O16" t="n">
-        <v>6.801842620492381E-10</v>
+        <v>9.873580358669273E-11</v>
       </c>
       <c r="P16" t="n">
-        <v>6.349302350923199E-14</v>
+        <v>6.537546387805785E-16</v>
       </c>
     </row>
     <row r="17">
@@ -1060,49 +1210,49 @@
         <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>1.2031038435955582E-8</v>
+        <v>1.7204907222336146E-10</v>
       </c>
       <c r="C17" t="n">
-        <v>4.322764513235266E-8</v>
+        <v>1.5572558779972077E-9</v>
       </c>
       <c r="D17" t="n">
-        <v>7.115964834616105E-9</v>
+        <v>2.3944056740252814E-10</v>
       </c>
       <c r="E17" t="n">
-        <v>8.135091623516552E-9</v>
+        <v>4.1823178512849843E-10</v>
       </c>
       <c r="F17" t="n">
-        <v>5.410892974572201E-9</v>
+        <v>9.850942670407592E-10</v>
       </c>
       <c r="G17" t="n">
-        <v>3.031349044096547E-8</v>
+        <v>1.0999250294726512E-10</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9629659807692793E-10</v>
+        <v>5.183802964670058E-11</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4187757950699913E-8</v>
+        <v>5.729087426303742E-10</v>
       </c>
       <c r="J17" t="n">
-        <v>5.7515516566886986E-8</v>
+        <v>7.992494737244795E-10</v>
       </c>
       <c r="K17" t="n">
-        <v>1.9055646297395907E-7</v>
+        <v>1.2600259763818165E-10</v>
       </c>
       <c r="L17" t="n">
-        <v>8.773101390466063E-9</v>
+        <v>1.010141749054364E-10</v>
       </c>
       <c r="M17" t="n">
-        <v>4.370570552408184E-9</v>
+        <v>7.913176891332955E-10</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1878872631934723E-8</v>
+        <v>4.579566873646828E-11</v>
       </c>
       <c r="O17" t="n">
-        <v>9.959377844816226E-10</v>
+        <v>8.12557922140875E-11</v>
       </c>
       <c r="P17" t="n">
-        <v>9.724798178270577E-13</v>
+        <v>5.915341361561049E-17</v>
       </c>
     </row>
     <row r="18">
@@ -1110,49 +1260,49 @@
         <v>31</v>
       </c>
       <c r="B18" t="n">
-        <v>3.7912450126974123E-8</v>
+        <v>7.325383178985401E-11</v>
       </c>
       <c r="C18" t="n">
-        <v>4.2676326467919955E-8</v>
+        <v>1.3041780754438617E-8</v>
       </c>
       <c r="D18" t="n">
-        <v>8.506953862778939E-9</v>
+        <v>2.5101150774677673E-11</v>
       </c>
       <c r="E18" t="n">
-        <v>2.915234805440171E-9</v>
+        <v>2.2693265416351337E-11</v>
       </c>
       <c r="F18" t="n">
-        <v>2.7174024411034464E-9</v>
+        <v>2.0435336862854882E-11</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0864212040637923E-8</v>
+        <v>9.842385131245203E-11</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6014092528193985E-10</v>
+        <v>1.737224640162657E-12</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8732629265960263E-8</v>
+        <v>9.607821302102757E-11</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2464482399720076E-8</v>
+        <v>1.1463914512155078E-9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.949047109171572E-7</v>
+        <v>1.3988259403477366E-7</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5795090081531214E-9</v>
+        <v>1.3080792167373194E-9</v>
       </c>
       <c r="M18" t="n">
-        <v>4.958047824010043E-9</v>
+        <v>6.736720541886005E-10</v>
       </c>
       <c r="N18" t="n">
-        <v>1.6803430896113834E-8</v>
+        <v>9.750737447377627E-10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.0925208004339819E-9</v>
+        <v>2.77856554942609E-13</v>
       </c>
       <c r="P18" t="n">
-        <v>2.6482630595979734E-12</v>
+        <v>1.6612120956395273E-16</v>
       </c>
     </row>
     <row r="19">
@@ -1160,49 +1310,49 @@
         <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>2.1269809095649988E-8</v>
+        <v>3.0113879475577127E-10</v>
       </c>
       <c r="C19" t="n">
-        <v>3.897770752277518E-8</v>
+        <v>4.049424023601497E-9</v>
       </c>
       <c r="D19" t="n">
-        <v>6.4812637901800956E-9</v>
+        <v>2.0782365196455844E-10</v>
       </c>
       <c r="E19" t="n">
-        <v>3.1124424698199307E-9</v>
+        <v>1.4808832674773811E-10</v>
       </c>
       <c r="F19" t="n">
-        <v>3.6578813391739976E-8</v>
+        <v>5.218528799957614E-10</v>
       </c>
       <c r="G19" t="n">
-        <v>1.3597090528599808E-8</v>
+        <v>3.5315554492621495E-9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.422100342116045E-10</v>
+        <v>1.8799732808721846E-12</v>
       </c>
       <c r="I19" t="n">
-        <v>1.876882042314493E-8</v>
+        <v>4.5956428653483525E-8</v>
       </c>
       <c r="J19" t="n">
-        <v>5.061474267014459E-8</v>
+        <v>3.268200873989104E-10</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7286066415515895E-7</v>
+        <v>1.5461082564768717E-7</v>
       </c>
       <c r="L19" t="n">
-        <v>2.8272486950744177E-8</v>
+        <v>1.1979238927996764E-9</v>
       </c>
       <c r="M19" t="n">
-        <v>4.007474910378362E-9</v>
+        <v>3.778175345912841E-11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.889293407514836E-7</v>
+        <v>1.515185986018901E-10</v>
       </c>
       <c r="O19" t="n">
-        <v>6.72380072563724E-10</v>
+        <v>1.037720099299625E-11</v>
       </c>
       <c r="P19" t="n">
-        <v>6.43027509836065E-14</v>
+        <v>1.735603504353277E-14</v>
       </c>
     </row>
     <row r="20">
@@ -1210,49 +1360,49 @@
         <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>2.5189352163573485E-8</v>
+        <v>5.113492631936624E-10</v>
       </c>
       <c r="C20" t="n">
-        <v>4.854335606653708E-8</v>
+        <v>3.752580798229107E-9</v>
       </c>
       <c r="D20" t="n">
-        <v>2.2385296392929886E-8</v>
+        <v>3.270402178000776E-10</v>
       </c>
       <c r="E20" t="n">
-        <v>5.172084954615448E-9</v>
+        <v>5.477239571054033E-9</v>
       </c>
       <c r="F20" t="n">
-        <v>2.8149160982250537E-9</v>
+        <v>4.1164576199550694E-11</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3297662484108856E-8</v>
+        <v>4.703535792695859E-10</v>
       </c>
       <c r="H20" t="n">
-        <v>3.677544096850831E-10</v>
+        <v>1.561344396842845E-12</v>
       </c>
       <c r="I20" t="n">
-        <v>6.100659304052026E-8</v>
+        <v>5.321697043836888E-9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2149245403098924E-8</v>
+        <v>7.040277631126635E-10</v>
       </c>
       <c r="K20" t="n">
-        <v>7.138231256137286E-7</v>
+        <v>6.071441328829224E-10</v>
       </c>
       <c r="L20" t="n">
-        <v>7.518338738751501E-9</v>
+        <v>3.6784389611620015E-11</v>
       </c>
       <c r="M20" t="n">
-        <v>3.0924077968617253E-9</v>
+        <v>3.4658263345204544E-11</v>
       </c>
       <c r="N20" t="n">
-        <v>4.719583933231521E-8</v>
+        <v>3.0079584503490147E-10</v>
       </c>
       <c r="O20" t="n">
-        <v>2.502742507305435E-9</v>
+        <v>3.811833363738998E-12</v>
       </c>
       <c r="P20" t="n">
-        <v>2.3712008977222375E-14</v>
+        <v>3.2659223158151326E-17</v>
       </c>
     </row>
     <row r="21">
@@ -1260,49 +1410,49 @@
         <v>34</v>
       </c>
       <c r="B21" t="n">
-        <v>1.493601673079786E-8</v>
+        <v>2.900378566922884E-7</v>
       </c>
       <c r="C21" t="n">
-        <v>2.9126249933269592E-8</v>
+        <v>8.364627513267627E-7</v>
       </c>
       <c r="D21" t="n">
-        <v>9.173226921788758E-9</v>
+        <v>7.778727616760502E-10</v>
       </c>
       <c r="E21" t="n">
-        <v>1.3165898249491739E-8</v>
+        <v>1.71640040057468E-10</v>
       </c>
       <c r="F21" t="n">
-        <v>4.718633276738537E-9</v>
+        <v>3.244856833314693E-11</v>
       </c>
       <c r="G21" t="n">
-        <v>4.430269336611716E-8</v>
+        <v>2.1792227145634524E-7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2299583128585187E-10</v>
+        <v>1.9058006975843375E-10</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6592423621649785E-8</v>
+        <v>9.264442509936555E-9</v>
       </c>
       <c r="J21" t="n">
-        <v>2.236542126199112E-8</v>
+        <v>4.831022876486389E-10</v>
       </c>
       <c r="K21" t="n">
-        <v>3.339964333255036E-7</v>
+        <v>1.0663375862322016E-7</v>
       </c>
       <c r="L21" t="n">
-        <v>3.451504963886824E-9</v>
+        <v>1.4183004523594457E-9</v>
       </c>
       <c r="M21" t="n">
-        <v>5.104976889016608E-9</v>
+        <v>3.1666712263460065E-10</v>
       </c>
       <c r="N21" t="n">
-        <v>2.9041482768858645E-8</v>
+        <v>5.671198682093932E-7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1393322356960743E-9</v>
+        <v>7.471186388488532E-11</v>
       </c>
       <c r="P21" t="n">
-        <v>6.160076629791894E-14</v>
+        <v>1.3174830512411797E-15</v>
       </c>
     </row>
     <row r="22">
@@ -1310,49 +1460,49 @@
         <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>1.3653619478213263E-8</v>
+        <v>1.1981432410879008E-9</v>
       </c>
       <c r="C22" t="n">
-        <v>1.3003097429392416E-7</v>
+        <v>1.5561251441892592E-8</v>
       </c>
       <c r="D22" t="n">
-        <v>5.338053806484171E-9</v>
+        <v>1.2545557371195488E-8</v>
       </c>
       <c r="E22" t="n">
-        <v>1.591265753035626E-8</v>
+        <v>8.345655767424208E-11</v>
       </c>
       <c r="F22" t="n">
-        <v>5.795286822117654E-9</v>
+        <v>9.019400370591172E-10</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0318903710060343E-8</v>
+        <v>4.031333404387233E-9</v>
       </c>
       <c r="H22" t="n">
-        <v>1.9068669464652252E-8</v>
+        <v>2.88862505908004E-12</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9554579435618123E-8</v>
+        <v>3.793635393806831E-10</v>
       </c>
       <c r="J22" t="n">
-        <v>4.4428772624649854E-8</v>
+        <v>2.9057826721446845E-9</v>
       </c>
       <c r="K22" t="n">
-        <v>1.0634179100198661E-6</v>
+        <v>1.4836230922276325E-8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.271760208304778E-8</v>
+        <v>7.424968471660913E-11</v>
       </c>
       <c r="M22" t="n">
-        <v>5.903188068633235E-9</v>
+        <v>2.4291047843981767E-11</v>
       </c>
       <c r="N22" t="n">
-        <v>3.9181509971509957E-8</v>
+        <v>4.4866923358825314E-10</v>
       </c>
       <c r="O22" t="n">
-        <v>4.1195976954745486E-10</v>
+        <v>2.1024425389109981E-10</v>
       </c>
       <c r="P22" t="n">
-        <v>2.314896811541937E-14</v>
+        <v>4.2442826216900697E-16</v>
       </c>
     </row>
     <row r="23">
@@ -1360,49 +1510,49 @@
         <v>36</v>
       </c>
       <c r="B23" t="n">
-        <v>1.7402925937899305E-7</v>
+        <v>1.8057505074257609E-9</v>
       </c>
       <c r="C23" t="n">
-        <v>7.885780905417216E-8</v>
+        <v>1.596469148863521E-9</v>
       </c>
       <c r="D23" t="n">
-        <v>3.8130331687650934E-8</v>
+        <v>3.4147689057261696E-10</v>
       </c>
       <c r="E23" t="n">
-        <v>7.547829271750627E-9</v>
+        <v>1.4007680124414862E-9</v>
       </c>
       <c r="F23" t="n">
-        <v>7.174599274936622E-9</v>
+        <v>1.0739109813804599E-10</v>
       </c>
       <c r="G23" t="n">
-        <v>1.3140691957418237E-8</v>
+        <v>2.394560549113141E-9</v>
       </c>
       <c r="H23" t="n">
-        <v>2.685892666422096E-10</v>
+        <v>4.512062743807403E-12</v>
       </c>
       <c r="I23" t="n">
-        <v>5.197192723877831E-8</v>
+        <v>1.4306908446698289E-8</v>
       </c>
       <c r="J23" t="n">
-        <v>1.7847981226314405E-7</v>
+        <v>6.5532402040456325E-9</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3000294612557635E-7</v>
+        <v>3.217050745015765E-10</v>
       </c>
       <c r="L23" t="n">
-        <v>3.782535359047269E-9</v>
+        <v>5.530590875727197E-10</v>
       </c>
       <c r="M23" t="n">
-        <v>2.843391888703284E-9</v>
+        <v>7.812023678878786E-10</v>
       </c>
       <c r="N23" t="n">
-        <v>2.7370660769636425E-8</v>
+        <v>5.186933874362397E-10</v>
       </c>
       <c r="O23" t="n">
-        <v>5.729932947082305E-10</v>
+        <v>1.903529370791861E-11</v>
       </c>
       <c r="P23" t="n">
-        <v>1.9966071224128403E-13</v>
+        <v>5.594214723733871E-14</v>
       </c>
     </row>
     <row r="24">
@@ -1410,49 +1560,49 @@
         <v>37</v>
       </c>
       <c r="B24" t="n">
-        <v>2.6115391390713093E-8</v>
+        <v>3.0637520986923587E-10</v>
       </c>
       <c r="C24" t="n">
-        <v>5.087379853030306E-8</v>
+        <v>5.461007015667751E-9</v>
       </c>
       <c r="D24" t="n">
-        <v>8.627873228901135E-9</v>
+        <v>5.491298753683814E-10</v>
       </c>
       <c r="E24" t="n">
-        <v>3.1124858728189772E-9</v>
+        <v>8.230967551901805E-10</v>
       </c>
       <c r="F24" t="n">
-        <v>3.732911327033095E-9</v>
+        <v>8.167983738020103E-11</v>
       </c>
       <c r="G24" t="n">
-        <v>1.4904047279897512E-8</v>
+        <v>2.50356256358214E-10</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4663396620334436E-10</v>
+        <v>2.208407420924823E-11</v>
       </c>
       <c r="I24" t="n">
-        <v>1.648684655608825E-8</v>
+        <v>5.1715983302907685E-9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1413841662767426E-8</v>
+        <v>3.112086536099065E-10</v>
       </c>
       <c r="K24" t="n">
-        <v>6.956557741764676E-7</v>
+        <v>2.093715711832968E-9</v>
       </c>
       <c r="L24" t="n">
-        <v>4.177125768178728E-9</v>
+        <v>9.489610262139457E-11</v>
       </c>
       <c r="M24" t="n">
-        <v>5.126162045744098E-9</v>
+        <v>7.855261681173996E-11</v>
       </c>
       <c r="N24" t="n">
-        <v>6.190548593124385E-8</v>
+        <v>7.020517302911535E-10</v>
       </c>
       <c r="O24" t="n">
-        <v>5.058647756609767E-10</v>
+        <v>1.1570292846841829E-10</v>
       </c>
       <c r="P24" t="n">
-        <v>1.0370344705881346E-13</v>
+        <v>4.777096302768282E-16</v>
       </c>
     </row>
     <row r="25">
@@ -1460,49 +1610,49 @@
         <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>2.2909241211254683E-8</v>
+        <v>5.940291888905784E-10</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0434627595924776E-7</v>
+        <v>3.1771828309143017E-10</v>
       </c>
       <c r="D25" t="n">
-        <v>1.071179203025087E-8</v>
+        <v>5.338947688485377E-10</v>
       </c>
       <c r="E25" t="n">
-        <v>4.762789560086216E-9</v>
+        <v>1.555647633512614E-10</v>
       </c>
       <c r="F25" t="n">
-        <v>4.179440041898768E-9</v>
+        <v>1.0410782988320478E-10</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0963387723530818E-8</v>
+        <v>1.1816686295853886E-9</v>
       </c>
       <c r="H25" t="n">
-        <v>2.864246317921638E-10</v>
+        <v>1.2608937524918937E-9</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0758199766769738E-7</v>
+        <v>8.384634154294317E-9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.62085646628739E-8</v>
+        <v>1.7299268241897926E-9</v>
       </c>
       <c r="K25" t="n">
-        <v>1.1325693211237784E-7</v>
+        <v>5.133958707143018E-7</v>
       </c>
       <c r="L25" t="n">
-        <v>4.8174626535554156E-8</v>
+        <v>3.4760898623131886E-11</v>
       </c>
       <c r="M25" t="n">
-        <v>8.675302887977403E-9</v>
+        <v>1.5688422372745413E-11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.126502957218745E-8</v>
+        <v>4.282809749530395E-8</v>
       </c>
       <c r="O25" t="n">
-        <v>5.345018135532947E-10</v>
+        <v>1.2328402177414717E-11</v>
       </c>
       <c r="P25" t="n">
-        <v>7.174418797341473E-14</v>
+        <v>3.124981483422859E-16</v>
       </c>
     </row>
     <row r="26">
@@ -1510,49 +1660,49 @@
         <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>1.066498746086353E-7</v>
+        <v>4.994865391352392E-10</v>
       </c>
       <c r="C26" t="n">
-        <v>1.1666260460763757E-7</v>
+        <v>1.3584763505860028E-10</v>
       </c>
       <c r="D26" t="n">
-        <v>3.415592035106478E-9</v>
+        <v>4.2852769313535304E-11</v>
       </c>
       <c r="E26" t="n">
-        <v>3.6376489434560888E-9</v>
+        <v>1.8397827336900437E-10</v>
       </c>
       <c r="F26" t="n">
-        <v>4.890296236081208E-9</v>
+        <v>5.737000727851735E-12</v>
       </c>
       <c r="G26" t="n">
-        <v>2.043402936955632E-8</v>
+        <v>3.9901120519290203E-10</v>
       </c>
       <c r="H26" t="n">
-        <v>3.246998908452143E-10</v>
+        <v>7.338099500837308E-12</v>
       </c>
       <c r="I26" t="n">
-        <v>5.834255688699957E-8</v>
+        <v>8.673269056663074E-11</v>
       </c>
       <c r="J26" t="n">
-        <v>2.208156404696781E-8</v>
+        <v>5.9093851022952537E-8</v>
       </c>
       <c r="K26" t="n">
-        <v>2.321968780515392E-7</v>
+        <v>2.9391960766898066E-10</v>
       </c>
       <c r="L26" t="n">
-        <v>1.0130889429591658E-8</v>
+        <v>5.893773050595986E-10</v>
       </c>
       <c r="M26" t="n">
-        <v>2.940579315247165E-9</v>
+        <v>1.6183263334010476E-10</v>
       </c>
       <c r="N26" t="n">
-        <v>8.698399989421048E-9</v>
+        <v>5.589445377301835E-9</v>
       </c>
       <c r="O26" t="n">
-        <v>4.781627841775567E-9</v>
+        <v>1.232069995515617E-12</v>
       </c>
       <c r="P26" t="n">
-        <v>6.948773858802898E-14</v>
+        <v>7.611839472039722E-15</v>
       </c>
     </row>
     <row r="27">
@@ -1560,49 +1710,49 @@
         <v>40</v>
       </c>
       <c r="B27" t="n">
-        <v>2.9423748099925984E-8</v>
+        <v>5.023305308592012E-9</v>
       </c>
       <c r="C27" t="n">
-        <v>3.064210255396392E-8</v>
+        <v>1.524929023567559E-8</v>
       </c>
       <c r="D27" t="n">
-        <v>1.8755936082647316E-8</v>
+        <v>2.88662752442011E-10</v>
       </c>
       <c r="E27" t="n">
-        <v>3.202695710566019E-9</v>
+        <v>1.2176126480433175E-11</v>
       </c>
       <c r="F27" t="n">
-        <v>1.0918177073741387E-8</v>
+        <v>5.802915448552167E-10</v>
       </c>
       <c r="G27" t="n">
-        <v>1.6683254809464458E-8</v>
+        <v>8.838742437551813E-10</v>
       </c>
       <c r="H27" t="n">
-        <v>2.566720373954035E-9</v>
+        <v>6.3100563998947096E-12</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8788974920551998E-8</v>
+        <v>1.7788902146441307E-10</v>
       </c>
       <c r="J27" t="n">
-        <v>2.9987956708981006E-8</v>
+        <v>5.757097768632739E-10</v>
       </c>
       <c r="K27" t="n">
-        <v>9.359201399708572E-7</v>
+        <v>1.681844709343904E-9</v>
       </c>
       <c r="L27" t="n">
-        <v>3.4932808849878684E-9</v>
+        <v>1.4400991489636317E-10</v>
       </c>
       <c r="M27" t="n">
-        <v>4.6717727533878364E-9</v>
+        <v>4.676802445623581E-11</v>
       </c>
       <c r="N27" t="n">
-        <v>1.455256905483355E-7</v>
+        <v>2.3729971001722195E-10</v>
       </c>
       <c r="O27" t="n">
-        <v>4.132052202616144E-10</v>
+        <v>4.496932175908515E-13</v>
       </c>
       <c r="P27" t="n">
-        <v>3.2097557136575576E-13</v>
+        <v>2.0793560563110228E-15</v>
       </c>
     </row>
     <row r="28">
@@ -1610,49 +1760,49 @@
         <v>41</v>
       </c>
       <c r="B28" t="n">
-        <v>1.903050866449125E-7</v>
+        <v>1.205189141324953E-10</v>
       </c>
       <c r="C28" t="n">
-        <v>4.258706349866968E-8</v>
+        <v>3.8045422513490454E-11</v>
       </c>
       <c r="D28" t="n">
-        <v>1.1794814274027064E-7</v>
+        <v>2.5596487586143063E-8</v>
       </c>
       <c r="E28" t="n">
-        <v>6.064250466452711E-9</v>
+        <v>5.041551252896405E-9</v>
       </c>
       <c r="F28" t="n">
-        <v>5.302418315585096E-9</v>
+        <v>3.119349128876779E-11</v>
       </c>
       <c r="G28" t="n">
-        <v>1.3584417621166594E-8</v>
+        <v>7.947895748138652E-9</v>
       </c>
       <c r="H28" t="n">
-        <v>1.4915201805045973E-10</v>
+        <v>1.3317789579308183E-12</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6770619803986064E-8</v>
+        <v>5.858942648883743E-10</v>
       </c>
       <c r="J28" t="n">
-        <v>1.0020671886482636E-7</v>
+        <v>6.164057999546614E-8</v>
       </c>
       <c r="K28" t="n">
-        <v>8.195436286132714E-7</v>
+        <v>7.76947036629038E-10</v>
       </c>
       <c r="L28" t="n">
-        <v>9.440507965538185E-9</v>
+        <v>3.3559493491512856E-11</v>
       </c>
       <c r="M28" t="n">
-        <v>4.1632414507865386E-9</v>
+        <v>2.0861650989726588E-9</v>
       </c>
       <c r="N28" t="n">
-        <v>8.374919243313584E-8</v>
+        <v>2.7046071407606986E-10</v>
       </c>
       <c r="O28" t="n">
-        <v>6.223927850055154E-10</v>
+        <v>7.399902401637516E-9</v>
       </c>
       <c r="P28" t="n">
-        <v>1.3804559102101755E-12</v>
+        <v>2.4954673049068004E-16</v>
       </c>
     </row>
     <row r="29">
@@ -1660,49 +1810,49 @@
         <v>42</v>
       </c>
       <c r="B29" t="n">
-        <v>2.4972257329170085E-8</v>
+        <v>6.90413646908794E-10</v>
       </c>
       <c r="C29" t="n">
-        <v>6.298631750762557E-8</v>
+        <v>1.5400235659119514E-10</v>
       </c>
       <c r="D29" t="n">
-        <v>9.365004926383632E-9</v>
+        <v>4.101414344933455E-11</v>
       </c>
       <c r="E29" t="n">
-        <v>2.543104716381054E-9</v>
+        <v>1.372498485237667E-10</v>
       </c>
       <c r="F29" t="n">
-        <v>5.5912928202349814E-8</v>
+        <v>8.287825175709137E-11</v>
       </c>
       <c r="G29" t="n">
-        <v>3.164563163914903E-8</v>
+        <v>4.583468536911121E-11</v>
       </c>
       <c r="H29" t="n">
-        <v>2.0676929113290348E-10</v>
+        <v>2.4452489666109945E-12</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1141319001383403E-8</v>
+        <v>2.1816528423542553E-9</v>
       </c>
       <c r="J29" t="n">
-        <v>2.7439231691174742E-8</v>
+        <v>2.0633429299799066E-10</v>
       </c>
       <c r="K29" t="n">
-        <v>8.246612636175546E-7</v>
+        <v>7.693417471287256E-10</v>
       </c>
       <c r="L29" t="n">
-        <v>1.1389326979871386E-8</v>
+        <v>6.265731916019286E-12</v>
       </c>
       <c r="M29" t="n">
-        <v>3.0248598918332134E-9</v>
+        <v>5.835931255327902E-12</v>
       </c>
       <c r="N29" t="n">
-        <v>2.3825492021940252E-8</v>
+        <v>1.0643233593821494E-9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2290881382461593E-9</v>
+        <v>6.896011596468109E-13</v>
       </c>
       <c r="P29" t="n">
-        <v>1.2066511230238513E-13</v>
+        <v>2.133539504582267E-16</v>
       </c>
     </row>
     <row r="30">
@@ -1710,49 +1860,49 @@
         <v>43</v>
       </c>
       <c r="B30" t="n">
-        <v>1.8361883427812256E-8</v>
+        <v>3.16305052062258E-9</v>
       </c>
       <c r="C30" t="n">
-        <v>3.6889154459323895E-8</v>
+        <v>9.910121389813512E-9</v>
       </c>
       <c r="D30" t="n">
-        <v>5.1490276761286925E-9</v>
+        <v>3.4641206957982484E-9</v>
       </c>
       <c r="E30" t="n">
-        <v>3.778573896741043E-9</v>
+        <v>2.63423030721936E-9</v>
       </c>
       <c r="F30" t="n">
-        <v>2.5012525722687437E-9</v>
+        <v>2.6222495001711744E-11</v>
       </c>
       <c r="G30" t="n">
-        <v>1.1823733467681187E-8</v>
+        <v>1.6845709646856904E-9</v>
       </c>
       <c r="H30" t="n">
-        <v>2.899822532904566E-10</v>
+        <v>2.8142440588286896E-11</v>
       </c>
       <c r="I30" t="n">
-        <v>1.2305403818238277E-8</v>
+        <v>2.56534941188153E-10</v>
       </c>
       <c r="J30" t="n">
-        <v>8.613729518057E-8</v>
+        <v>1.1468310507129579E-8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.949071358755476E-7</v>
+        <v>1.264856583939451E-10</v>
       </c>
       <c r="L30" t="n">
-        <v>2.3408079583851078E-8</v>
+        <v>3.226730897728331E-9</v>
       </c>
       <c r="M30" t="n">
-        <v>1.091730765699831E-8</v>
+        <v>4.3539782102228514E-8</v>
       </c>
       <c r="N30" t="n">
-        <v>2.6526773405857773E-8</v>
+        <v>5.600632540706523E-9</v>
       </c>
       <c r="O30" t="n">
-        <v>6.245157958146578E-10</v>
+        <v>8.615533387282542E-11</v>
       </c>
       <c r="P30" t="n">
-        <v>3.9705558777748575E-14</v>
+        <v>2.8611205608554843E-15</v>
       </c>
     </row>
     <row r="31">
@@ -1760,49 +1910,49 @@
         <v>44</v>
       </c>
       <c r="B31" t="n">
-        <v>4.052222955061772E-8</v>
+        <v>4.7510482938555456E-9</v>
       </c>
       <c r="C31" t="n">
-        <v>4.11097671712598E-8</v>
+        <v>3.729122447912633E-9</v>
       </c>
       <c r="D31" t="n">
-        <v>6.004068645643776E-9</v>
+        <v>1.3471241263509432E-10</v>
       </c>
       <c r="E31" t="n">
-        <v>8.023393502197987E-9</v>
+        <v>6.785097924893868E-10</v>
       </c>
       <c r="F31" t="n">
-        <v>6.1652932463724525E-9</v>
+        <v>7.2276495102766556E-9</v>
       </c>
       <c r="G31" t="n">
-        <v>1.5482835877392657E-8</v>
+        <v>1.0314644412878381E-9</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6294224174546694E-10</v>
+        <v>2.379653127561043E-10</v>
       </c>
       <c r="I31" t="n">
-        <v>7.72192668349103E-9</v>
+        <v>4.083774066622565E-9</v>
       </c>
       <c r="J31" t="n">
-        <v>1.1842605327237035E-7</v>
+        <v>2.5147258053199844E-9</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7591299782052463E-7</v>
+        <v>1.7341516486620116E-8</v>
       </c>
       <c r="L31" t="n">
-        <v>2.741153235297286E-9</v>
+        <v>1.8740501825593305E-9</v>
       </c>
       <c r="M31" t="n">
-        <v>2.099929215836226E-9</v>
+        <v>3.7587064762141426E-9</v>
       </c>
       <c r="N31" t="n">
-        <v>2.7387249087581733E-8</v>
+        <v>3.5890183563637887E-9</v>
       </c>
       <c r="O31" t="n">
-        <v>7.790567378589391E-10</v>
+        <v>2.08695723086952E-12</v>
       </c>
       <c r="P31" t="n">
-        <v>2.2415966348927364E-13</v>
+        <v>3.175670764325308E-16</v>
       </c>
     </row>
     <row r="32">
@@ -1810,49 +1960,49 @@
         <v>45</v>
       </c>
       <c r="B32" t="n">
-        <v>2.647047952461795E-8</v>
+        <v>2.9095614812616647E-10</v>
       </c>
       <c r="C32" t="n">
-        <v>3.687023751177012E-8</v>
+        <v>1.7355046183721095E-9</v>
       </c>
       <c r="D32" t="n">
-        <v>4.911852211740032E-8</v>
+        <v>9.224326022933088E-11</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0657621066498042E-8</v>
+        <v>2.9417345380879345E-11</v>
       </c>
       <c r="F32" t="n">
-        <v>2.744223364623341E-9</v>
+        <v>8.518347686580138E-10</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8202339527967927E-8</v>
+        <v>6.140382818515035E-11</v>
       </c>
       <c r="H32" t="n">
-        <v>2.0563349028430226E-10</v>
+        <v>9.39279405552033E-12</v>
       </c>
       <c r="I32" t="n">
-        <v>7.450529536544065E-8</v>
+        <v>4.645173254404737E-10</v>
       </c>
       <c r="J32" t="n">
-        <v>1.8831161806671645E-8</v>
+        <v>3.613202642367942E-9</v>
       </c>
       <c r="K32" t="n">
-        <v>2.5637348913392953E-7</v>
+        <v>9.248902272121414E-7</v>
       </c>
       <c r="L32" t="n">
-        <v>3.011660654268057E-9</v>
+        <v>1.2314763601761242E-10</v>
       </c>
       <c r="M32" t="n">
-        <v>5.396620799105767E-9</v>
+        <v>1.726200257907415E-10</v>
       </c>
       <c r="N32" t="n">
-        <v>5.145401938594606E-8</v>
+        <v>8.513446812351598E-9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2762884392942026E-9</v>
+        <v>5.01822350263636E-14</v>
       </c>
       <c r="P32" t="n">
-        <v>1.8970549381228286E-13</v>
+        <v>1.7501077005027107E-15</v>
       </c>
     </row>
     <row r="33">
@@ -1860,49 +2010,49 @@
         <v>46</v>
       </c>
       <c r="B33" t="n">
-        <v>1.0435393540940383E-8</v>
+        <v>3.2488505115815747E-10</v>
       </c>
       <c r="C33" t="n">
-        <v>3.7535265525514944E-8</v>
+        <v>3.786576561427666E-10</v>
       </c>
       <c r="D33" t="n">
-        <v>9.580157536638318E-9</v>
+        <v>1.5510844320974734E-10</v>
       </c>
       <c r="E33" t="n">
-        <v>5.190010939371321E-9</v>
+        <v>8.944084613440499E-10</v>
       </c>
       <c r="F33" t="n">
-        <v>6.1047634256514115E-9</v>
+        <v>4.645195187253334E-10</v>
       </c>
       <c r="G33" t="n">
-        <v>1.2208060132104992E-8</v>
+        <v>8.174464772932072E-10</v>
       </c>
       <c r="H33" t="n">
-        <v>6.107410941113003E-10</v>
+        <v>2.5387960947060762E-12</v>
       </c>
       <c r="I33" t="n">
-        <v>1.8048155938003284E-8</v>
+        <v>6.980786827999345E-11</v>
       </c>
       <c r="J33" t="n">
-        <v>5.4530284571099025E-8</v>
+        <v>4.3793680579643323E-7</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2572781073133147E-7</v>
+        <v>1.1490860722260064E-9</v>
       </c>
       <c r="L33" t="n">
-        <v>6.0772255043470404E-9</v>
+        <v>3.2036419463195125E-10</v>
       </c>
       <c r="M33" t="n">
-        <v>7.68722400386146E-9</v>
+        <v>1.456629284835963E-10</v>
       </c>
       <c r="N33" t="n">
-        <v>1.0569582577031182E-8</v>
+        <v>9.640932044636761E-11</v>
       </c>
       <c r="O33" t="n">
-        <v>7.131982074431714E-10</v>
+        <v>3.2117367315572596E-11</v>
       </c>
       <c r="P33" t="n">
-        <v>8.731804062116331E-13</v>
+        <v>7.986458126967926E-16</v>
       </c>
     </row>
     <row r="34">
@@ -1910,49 +2060,49 @@
         <v>47</v>
       </c>
       <c r="B34" t="n">
-        <v>3.2039564978531465E-8</v>
+        <v>2.906795821612776E-9</v>
       </c>
       <c r="C34" t="n">
-        <v>4.6258316610115E-8</v>
+        <v>3.481059673784036E-7</v>
       </c>
       <c r="D34" t="n">
-        <v>6.965511038259261E-9</v>
+        <v>2.9921924677285017E-10</v>
       </c>
       <c r="E34" t="n">
-        <v>2.8200152720905577E-9</v>
+        <v>2.3283642949273647E-10</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0332599364512837E-8</v>
+        <v>5.888644285673308E-10</v>
       </c>
       <c r="G34" t="n">
-        <v>7.042010496908562E-9</v>
+        <v>6.644229901240747E-9</v>
       </c>
       <c r="H34" t="n">
-        <v>1.2803672135260805E-9</v>
+        <v>2.39674651953496E-11</v>
       </c>
       <c r="I34" t="n">
-        <v>1.5271067528597862E-8</v>
+        <v>1.170869619745095E-8</v>
       </c>
       <c r="J34" t="n">
-        <v>2.2852930082030857E-8</v>
+        <v>7.533545854210002E-9</v>
       </c>
       <c r="K34" t="n">
-        <v>2.0901487282207767E-7</v>
+        <v>2.788106552147133E-8</v>
       </c>
       <c r="L34" t="n">
-        <v>6.611700536390528E-9</v>
+        <v>1.1537059618792608E-11</v>
       </c>
       <c r="M34" t="n">
-        <v>6.568783605427492E-9</v>
+        <v>8.593863172071599E-11</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7724712729224765E-8</v>
+        <v>2.6544829852389626E-8</v>
       </c>
       <c r="O34" t="n">
-        <v>4.5897420196542763E-10</v>
+        <v>2.5931134934651695E-11</v>
       </c>
       <c r="P34" t="n">
-        <v>8.325458745547823E-13</v>
+        <v>6.2058658214809546E-15</v>
       </c>
     </row>
     <row r="35">
@@ -1960,49 +2110,49 @@
         <v>48</v>
       </c>
       <c r="B35" t="n">
-        <v>3.5090001244354945E-8</v>
+        <v>1.15829546821739E-9</v>
       </c>
       <c r="C35" t="n">
-        <v>9.774529663927154E-8</v>
+        <v>1.4765125438637311E-9</v>
       </c>
       <c r="D35" t="n">
-        <v>1.1941282091023659E-8</v>
+        <v>2.598563515364934E-10</v>
       </c>
       <c r="E35" t="n">
-        <v>3.5637306999269176E-9</v>
+        <v>1.1157660855839941E-10</v>
       </c>
       <c r="F35" t="n">
-        <v>5.591452833446948E-9</v>
+        <v>1.552565411576281E-10</v>
       </c>
       <c r="G35" t="n">
-        <v>2.988398450746903E-8</v>
+        <v>5.927895143639094E-10</v>
       </c>
       <c r="H35" t="n">
-        <v>3.026889336744218E-10</v>
+        <v>1.122383608029947E-11</v>
       </c>
       <c r="I35" t="n">
-        <v>1.1812268621993278E-8</v>
+        <v>1.001476388551965E-9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.0680831365391515E-7</v>
+        <v>5.053539140668449E-9</v>
       </c>
       <c r="K35" t="n">
-        <v>2.6961399052189814E-7</v>
+        <v>8.197975050264386E-11</v>
       </c>
       <c r="L35" t="n">
-        <v>1.0513182497611408E-8</v>
+        <v>1.0778332967973335E-9</v>
       </c>
       <c r="M35" t="n">
-        <v>2.4012896606752265E-9</v>
+        <v>3.486042757874526E-11</v>
       </c>
       <c r="N35" t="n">
-        <v>3.221544795265226E-8</v>
+        <v>2.430003591335891E-9</v>
       </c>
       <c r="O35" t="n">
-        <v>2.2310873476555654E-9</v>
+        <v>4.647245313707606E-13</v>
       </c>
       <c r="P35" t="n">
-        <v>1.1075151112433359E-13</v>
+        <v>4.38766174816304E-16</v>
       </c>
     </row>
     <row r="36">
@@ -2010,49 +2160,49 @@
         <v>49</v>
       </c>
       <c r="B36" t="n">
-        <v>1.497247060873615E-8</v>
+        <v>3.4434759131270763E-10</v>
       </c>
       <c r="C36" t="n">
-        <v>2.6165880871317487E-8</v>
+        <v>1.9595658154685756E-9</v>
       </c>
       <c r="D36" t="n">
-        <v>3.878698198390007E-8</v>
+        <v>8.309119650081993E-11</v>
       </c>
       <c r="E36" t="n">
-        <v>8.976809518446398E-9</v>
+        <v>8.694016318643555E-11</v>
       </c>
       <c r="F36" t="n">
-        <v>2.2557072617919824E-8</v>
+        <v>1.273071139346738E-11</v>
       </c>
       <c r="G36" t="n">
-        <v>1.3451635072262941E-8</v>
+        <v>1.9188041456657783E-10</v>
       </c>
       <c r="H36" t="n">
-        <v>8.33417505194267E-10</v>
+        <v>8.156164915123612E-12</v>
       </c>
       <c r="I36" t="n">
-        <v>9.706659540929596E-9</v>
+        <v>2.2247427368615594E-8</v>
       </c>
       <c r="J36" t="n">
-        <v>1.1192341931479134E-7</v>
+        <v>1.4463504466017375E-9</v>
       </c>
       <c r="K36" t="n">
-        <v>2.0693109153033008E-7</v>
+        <v>4.930937997155928E-9</v>
       </c>
       <c r="L36" t="n">
-        <v>6.263984682883996E-9</v>
+        <v>6.201385708192831E-11</v>
       </c>
       <c r="M36" t="n">
-        <v>4.9300817948435725E-9</v>
+        <v>3.3011336119254596E-10</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2861539690870504E-8</v>
+        <v>2.7763411584968895E-10</v>
       </c>
       <c r="O36" t="n">
-        <v>9.47155357614852E-10</v>
+        <v>1.7384414365584266E-12</v>
       </c>
       <c r="P36" t="n">
-        <v>2.0217476840022482E-13</v>
+        <v>7.096108126925507E-16</v>
       </c>
     </row>
     <row r="37">
@@ -2060,49 +2210,49 @@
         <v>50</v>
       </c>
       <c r="B37" t="n">
-        <v>2.712458049198678E-8</v>
+        <v>2.0161626452905302E-7</v>
       </c>
       <c r="C37" t="n">
-        <v>4.825518247599368E-8</v>
+        <v>7.492133599611862E-10</v>
       </c>
       <c r="D37" t="n">
-        <v>6.0557628609180564E-9</v>
+        <v>7.599708651329467E-9</v>
       </c>
       <c r="E37" t="n">
-        <v>1.2010821703387393E-8</v>
+        <v>7.237175765382161E-10</v>
       </c>
       <c r="F37" t="n">
-        <v>8.719159357880605E-9</v>
+        <v>2.478214142475978E-9</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0057106071103894E-8</v>
+        <v>6.237416066503352E-9</v>
       </c>
       <c r="H37" t="n">
-        <v>4.3895280954031255E-10</v>
+        <v>3.5054445281773704E-11</v>
       </c>
       <c r="I37" t="n">
-        <v>2.8632836356098467E-8</v>
+        <v>1.3437189227090581E-8</v>
       </c>
       <c r="J37" t="n">
-        <v>1.9238078008947528E-8</v>
+        <v>1.6787453800477946E-10</v>
       </c>
       <c r="K37" t="n">
-        <v>7.753997281055608E-7</v>
+        <v>3.4696253109781003E-10</v>
       </c>
       <c r="L37" t="n">
-        <v>4.5773022045088645E-9</v>
+        <v>8.812172463245671E-11</v>
       </c>
       <c r="M37" t="n">
-        <v>1.7062064786977886E-8</v>
+        <v>9.801935430120447E-11</v>
       </c>
       <c r="N37" t="n">
-        <v>1.387179640913047E-8</v>
+        <v>5.2621650127743755E-11</v>
       </c>
       <c r="O37" t="n">
-        <v>3.250345250701513E-10</v>
+        <v>3.6106268477502797E-12</v>
       </c>
       <c r="P37" t="n">
-        <v>4.852780492485572E-14</v>
+        <v>1.3807443333824692E-14</v>
       </c>
     </row>
     <row r="38">
@@ -2110,49 +2260,49 @@
         <v>51</v>
       </c>
       <c r="B38" t="n">
-        <v>1.807388149014194E-8</v>
+        <v>3.58874635759926E-9</v>
       </c>
       <c r="C38" t="n">
-        <v>4.820638746625001E-8</v>
+        <v>1.117795023197806E-9</v>
       </c>
       <c r="D38" t="n">
-        <v>4.651742070222887E-9</v>
+        <v>2.2927773278785801E-10</v>
       </c>
       <c r="E38" t="n">
-        <v>2.418915443717945E-9</v>
+        <v>1.8441999173175803E-11</v>
       </c>
       <c r="F38" t="n">
-        <v>3.290796252211087E-9</v>
+        <v>3.5925303575388684E-11</v>
       </c>
       <c r="G38" t="n">
-        <v>1.0105589454076707E-8</v>
+        <v>3.019451499754459E-10</v>
       </c>
       <c r="H38" t="n">
-        <v>1.6122791382500396E-10</v>
+        <v>5.415591475118754E-13</v>
       </c>
       <c r="I38" t="n">
-        <v>1.962925795275891E-8</v>
+        <v>6.183822073308184E-10</v>
       </c>
       <c r="J38" t="n">
-        <v>4.082781488016573E-8</v>
+        <v>4.570282616756874E-10</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1876351905926672E-7</v>
+        <v>8.777740232014301E-11</v>
       </c>
       <c r="L38" t="n">
-        <v>2.052783589188224E-8</v>
+        <v>1.226768494599554E-10</v>
       </c>
       <c r="M38" t="n">
-        <v>2.461611409717274E-9</v>
+        <v>2.130999039451689E-11</v>
       </c>
       <c r="N38" t="n">
-        <v>5.6676400662740276E-8</v>
+        <v>5.903525083556477E-11</v>
       </c>
       <c r="O38" t="n">
-        <v>7.095151055701625E-10</v>
+        <v>2.219301180606391E-12</v>
       </c>
       <c r="P38" t="n">
-        <v>1.0861188022440207E-13</v>
+        <v>8.411638042412714E-16</v>
       </c>
     </row>
     <row r="39">
@@ -2160,49 +2310,49 @@
         <v>52</v>
       </c>
       <c r="B39" t="n">
-        <v>1.791813801842001E-8</v>
+        <v>2.520097310763896E-10</v>
       </c>
       <c r="C39" t="n">
-        <v>2.0067700374659347E-8</v>
+        <v>1.5331575828422133E-9</v>
       </c>
       <c r="D39" t="n">
-        <v>7.0640035505035825E-9</v>
+        <v>1.3860750847867017E-9</v>
       </c>
       <c r="E39" t="n">
-        <v>9.995769041049715E-8</v>
+        <v>1.1589682342697373E-9</v>
       </c>
       <c r="F39" t="n">
-        <v>2.1984787766236183E-9</v>
+        <v>1.2392327803927074E-9</v>
       </c>
       <c r="G39" t="n">
-        <v>2.041551168370978E-8</v>
+        <v>3.270659670281569E-10</v>
       </c>
       <c r="H39" t="n">
-        <v>3.73257170072284E-10</v>
+        <v>1.251637610013851E-11</v>
       </c>
       <c r="I39" t="n">
-        <v>8.503142322126248E-9</v>
+        <v>4.218734691168403E-10</v>
       </c>
       <c r="J39" t="n">
-        <v>1.2533175476654894E-7</v>
+        <v>3.6190790483115023E-9</v>
       </c>
       <c r="K39" t="n">
-        <v>7.399873428039185E-7</v>
+        <v>5.042973950215043E-9</v>
       </c>
       <c r="L39" t="n">
-        <v>3.6731860889432527E-9</v>
+        <v>1.0966493363857273E-11</v>
       </c>
       <c r="M39" t="n">
-        <v>1.808057310265267E-8</v>
+        <v>1.4524856710706804E-9</v>
       </c>
       <c r="N39" t="n">
-        <v>1.7212484466781243E-8</v>
+        <v>5.259387131236668E-10</v>
       </c>
       <c r="O39" t="n">
-        <v>4.374961230125133E-10</v>
+        <v>1.4615661486576739E-10</v>
       </c>
       <c r="P39" t="n">
-        <v>5.109353072454688E-14</v>
+        <v>4.7187643160644804E-15</v>
       </c>
     </row>
     <row r="40">
@@ -2210,49 +2360,49 @@
         <v>53</v>
       </c>
       <c r="B40" t="n">
-        <v>2.83399325326026E-8</v>
+        <v>1.9683911823706553E-9</v>
       </c>
       <c r="C40" t="n">
-        <v>2.284834702487408E-8</v>
+        <v>9.35106157630176E-9</v>
       </c>
       <c r="D40" t="n">
-        <v>5.551831811187046E-9</v>
+        <v>6.882695084992714E-11</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9066067264925163E-8</v>
+        <v>1.700897687366143E-11</v>
       </c>
       <c r="F40" t="n">
-        <v>3.6187884061595673E-9</v>
+        <v>1.4056141797884872E-10</v>
       </c>
       <c r="G40" t="n">
-        <v>1.2943644919842079E-8</v>
+        <v>3.362560698692082E-8</v>
       </c>
       <c r="H40" t="n">
-        <v>6.986260531439852E-10</v>
+        <v>7.1966869263064E-13</v>
       </c>
       <c r="I40" t="n">
-        <v>1.603644613626043E-8</v>
+        <v>6.272382278062017E-10</v>
       </c>
       <c r="J40" t="n">
-        <v>4.895259413638686E-8</v>
+        <v>4.494321213411651E-9</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1435449492973883E-7</v>
+        <v>3.944461533576567E-8</v>
       </c>
       <c r="L40" t="n">
-        <v>6.174995764156526E-9</v>
+        <v>1.4806141822814143E-9</v>
       </c>
       <c r="M40" t="n">
-        <v>1.8871264160689716E-8</v>
+        <v>3.4526844908029925E-10</v>
       </c>
       <c r="N40" t="n">
-        <v>1.5644655122383702E-8</v>
+        <v>3.5098066217734183E-10</v>
       </c>
       <c r="O40" t="n">
-        <v>1.7947540977473522E-9</v>
+        <v>1.4236502750774253E-12</v>
       </c>
       <c r="P40" t="n">
-        <v>3.843607184626341E-14</v>
+        <v>2.0364862267847223E-16</v>
       </c>
     </row>
     <row r="41">
@@ -2260,49 +2410,49 @@
         <v>54</v>
       </c>
       <c r="B41" t="n">
-        <v>2.1791916212962278E-8</v>
+        <v>1.298020239027939E-8</v>
       </c>
       <c r="C41" t="n">
-        <v>1.3027575249486134E-7</v>
+        <v>1.4233191804606038E-9</v>
       </c>
       <c r="D41" t="n">
-        <v>6.768287693235259E-9</v>
+        <v>8.220773439736003E-11</v>
       </c>
       <c r="E41" t="n">
-        <v>5.898821324991185E-9</v>
+        <v>2.9573816515958413E-10</v>
       </c>
       <c r="F41" t="n">
-        <v>3.826478197406413E-9</v>
+        <v>2.487855665712417E-10</v>
       </c>
       <c r="G41" t="n">
-        <v>1.9103349442306925E-8</v>
+        <v>3.475814984719746E-10</v>
       </c>
       <c r="H41" t="n">
-        <v>3.889527712455174E-10</v>
+        <v>2.6146502814191882E-11</v>
       </c>
       <c r="I41" t="n">
-        <v>5.959855368501747E-8</v>
+        <v>2.6332911670945626E-10</v>
       </c>
       <c r="J41" t="n">
-        <v>6.678239650191464E-8</v>
+        <v>4.956427137333163E-10</v>
       </c>
       <c r="K41" t="n">
-        <v>9.342448991822963E-7</v>
+        <v>1.3474981319607254E-9</v>
       </c>
       <c r="L41" t="n">
-        <v>6.674736976783695E-9</v>
+        <v>3.236718208047443E-10</v>
       </c>
       <c r="M41" t="n">
-        <v>4.906607660910103E-9</v>
+        <v>5.174085824867834E-10</v>
       </c>
       <c r="N41" t="n">
-        <v>1.1404443387633228E-8</v>
+        <v>3.711828741591938E-10</v>
       </c>
       <c r="O41" t="n">
-        <v>9.909341684860793E-10</v>
+        <v>1.2404934549385117E-12</v>
       </c>
       <c r="P41" t="n">
-        <v>3.9228135859689553E-14</v>
+        <v>4.920716455371626E-15</v>
       </c>
     </row>
     <row r="42">
@@ -2310,49 +2460,49 @@
         <v>55</v>
       </c>
       <c r="B42" t="n">
-        <v>9.709260161870552E-8</v>
+        <v>1.1138219762734277E-10</v>
       </c>
       <c r="C42" t="n">
-        <v>3.178949023528117E-7</v>
+        <v>8.834215582304392E-9</v>
       </c>
       <c r="D42" t="n">
-        <v>8.046325050019738E-9</v>
+        <v>1.044725401750084E-10</v>
       </c>
       <c r="E42" t="n">
-        <v>4.307021262890299E-9</v>
+        <v>3.146585450081335E-12</v>
       </c>
       <c r="F42" t="n">
-        <v>7.729507296354925E-9</v>
+        <v>6.200806879980402E-11</v>
       </c>
       <c r="G42" t="n">
-        <v>5.451576987812193E-8</v>
+        <v>1.5910644773071683E-10</v>
       </c>
       <c r="H42" t="n">
-        <v>5.208838964550807E-10</v>
+        <v>6.275598524484046E-13</v>
       </c>
       <c r="I42" t="n">
-        <v>4.3046934016988326E-7</v>
+        <v>4.986519454328152E-10</v>
       </c>
       <c r="J42" t="n">
-        <v>4.591497198557386E-8</v>
+        <v>1.3628127936650485E-9</v>
       </c>
       <c r="K42" t="n">
-        <v>2.429117583732982E-7</v>
+        <v>1.4339035157978966E-9</v>
       </c>
       <c r="L42" t="n">
-        <v>6.81833511171011E-9</v>
+        <v>3.165140859460535E-11</v>
       </c>
       <c r="M42" t="n">
-        <v>6.606016754001894E-9</v>
+        <v>1.2546072052082822E-11</v>
       </c>
       <c r="N42" t="n">
-        <v>1.265282154313119E-8</v>
+        <v>4.7230744969879076E-11</v>
       </c>
       <c r="O42" t="n">
-        <v>9.919817365904873E-10</v>
+        <v>2.1847976208079714E-12</v>
       </c>
       <c r="P42" t="n">
-        <v>1.6080936579364057E-13</v>
+        <v>1.2591112512905864E-14</v>
       </c>
     </row>
     <row r="43">
@@ -2360,49 +2510,49 @@
         <v>56</v>
       </c>
       <c r="B43" t="n">
-        <v>8.61793292470029E-7</v>
+        <v>3.4990513118245593E-8</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0462875821298197E-7</v>
+        <v>5.456566210683866E-8</v>
       </c>
       <c r="D43" t="n">
-        <v>5.557830636859504E-9</v>
+        <v>8.34165807382971E-10</v>
       </c>
       <c r="E43" t="n">
-        <v>9.756199234360153E-9</v>
+        <v>1.204478364038152E-9</v>
       </c>
       <c r="F43" t="n">
-        <v>6.569820739993063E-9</v>
+        <v>1.098852055173136E-10</v>
       </c>
       <c r="G43" t="n">
-        <v>1.862972853368192E-8</v>
+        <v>1.1071549915439896E-10</v>
       </c>
       <c r="H43" t="n">
-        <v>1.880686493741053E-10</v>
+        <v>5.7241577973798174E-12</v>
       </c>
       <c r="I43" t="n">
-        <v>1.7537736847088094E-8</v>
+        <v>3.1024151884720946E-10</v>
       </c>
       <c r="J43" t="n">
-        <v>6.2157930566069E-8</v>
+        <v>1.0747118582771749E-8</v>
       </c>
       <c r="K43" t="n">
-        <v>2.8797645488831666E-7</v>
+        <v>2.956599091506542E-9</v>
       </c>
       <c r="L43" t="n">
-        <v>9.425367349061763E-9</v>
+        <v>1.3013152514931887E-9</v>
       </c>
       <c r="M43" t="n">
-        <v>3.672603179156901E-8</v>
+        <v>2.8684961989905926E-10</v>
       </c>
       <c r="N43" t="n">
-        <v>1.006759827391383E-8</v>
+        <v>2.631304095812767E-8</v>
       </c>
       <c r="O43" t="n">
-        <v>9.624788713935016E-9</v>
+        <v>5.957540901925772E-10</v>
       </c>
       <c r="P43" t="n">
-        <v>8.929022805470466E-14</v>
+        <v>4.527390840715524E-16</v>
       </c>
     </row>
     <row r="44">
@@ -2410,49 +2560,49 @@
         <v>57</v>
       </c>
       <c r="B44" t="n">
-        <v>1.5977394753415466E-8</v>
+        <v>5.415100998963069E-10</v>
       </c>
       <c r="C44" t="n">
-        <v>6.918802613853692E-8</v>
+        <v>3.00718302569311E-8</v>
       </c>
       <c r="D44" t="n">
-        <v>1.561868958914878E-8</v>
+        <v>5.435517824096379E-9</v>
       </c>
       <c r="E44" t="n">
-        <v>7.881465542914267E-9</v>
+        <v>3.7006516041450335E-10</v>
       </c>
       <c r="F44" t="n">
-        <v>1.1560182235637218E-8</v>
+        <v>6.905620771406704E-11</v>
       </c>
       <c r="G44" t="n">
-        <v>3.639743007082861E-8</v>
+        <v>2.2906553780299706E-8</v>
       </c>
       <c r="H44" t="n">
-        <v>7.086042545592172E-10</v>
+        <v>5.566656840801199E-11</v>
       </c>
       <c r="I44" t="n">
-        <v>1.01183565940825E-8</v>
+        <v>2.320505012664994E-9</v>
       </c>
       <c r="J44" t="n">
-        <v>2.135692217402558E-8</v>
+        <v>1.4289403218854883E-9</v>
       </c>
       <c r="K44" t="n">
-        <v>6.028681765299767E-7</v>
+        <v>1.3232507844657223E-10</v>
       </c>
       <c r="L44" t="n">
-        <v>2.794577550490903E-9</v>
+        <v>1.4107677218483182E-10</v>
       </c>
       <c r="M44" t="n">
-        <v>2.841961420384811E-9</v>
+        <v>5.802052483960331E-12</v>
       </c>
       <c r="N44" t="n">
-        <v>2.558460153534121E-8</v>
+        <v>9.940285384729505E-9</v>
       </c>
       <c r="O44" t="n">
-        <v>9.301948724112391E-10</v>
+        <v>7.540471283713721E-10</v>
       </c>
       <c r="P44" t="n">
-        <v>2.7213627396618227E-13</v>
+        <v>1.1499038676954514E-15</v>
       </c>
     </row>
     <row r="45">
@@ -2460,49 +2610,49 @@
         <v>58</v>
       </c>
       <c r="B45" t="n">
-        <v>4.6261656314202276E-8</v>
+        <v>5.349991008927492E-10</v>
       </c>
       <c r="C45" t="n">
-        <v>5.1959332879372866E-8</v>
+        <v>1.1798106199648339E-7</v>
       </c>
       <c r="D45" t="n">
-        <v>7.765787309777647E-9</v>
+        <v>5.282860988807825E-10</v>
       </c>
       <c r="E45" t="n">
-        <v>1.8132639587273818E-8</v>
+        <v>7.002766181040405E-10</v>
       </c>
       <c r="F45" t="n">
-        <v>6.808048060971978E-9</v>
+        <v>4.4333882733052844E-11</v>
       </c>
       <c r="G45" t="n">
-        <v>5.196071473414925E-8</v>
+        <v>4.2238726069901536E-10</v>
       </c>
       <c r="H45" t="n">
-        <v>1.8414734174750202E-10</v>
+        <v>6.590788597966774E-10</v>
       </c>
       <c r="I45" t="n">
-        <v>1.4716607199002955E-8</v>
+        <v>3.442832707860451E-8</v>
       </c>
       <c r="J45" t="n">
-        <v>6.301440303231455E-8</v>
+        <v>9.716533351905079E-10</v>
       </c>
       <c r="K45" t="n">
-        <v>4.900869787513522E-7</v>
+        <v>1.2008398365664974E-7</v>
       </c>
       <c r="L45" t="n">
-        <v>8.053172049227895E-9</v>
+        <v>2.450093880889427E-10</v>
       </c>
       <c r="M45" t="n">
-        <v>8.712683642214742E-9</v>
+        <v>2.61134844000863E-9</v>
       </c>
       <c r="N45" t="n">
-        <v>2.5457389978713327E-8</v>
+        <v>5.020636375185854E-10</v>
       </c>
       <c r="O45" t="n">
-        <v>2.4853290106711442E-9</v>
+        <v>1.4817272846121819E-12</v>
       </c>
       <c r="P45" t="n">
-        <v>3.7740036176290416E-12</v>
+        <v>2.8401794012819804E-16</v>
       </c>
     </row>
     <row r="46">
@@ -2510,49 +2660,49 @@
         <v>59</v>
       </c>
       <c r="B46" t="n">
-        <v>1.3676343620597183E-8</v>
+        <v>1.616297404444576E-8</v>
       </c>
       <c r="C46" t="n">
-        <v>4.467788611732857E-8</v>
+        <v>1.2883955008316435E-9</v>
       </c>
       <c r="D46" t="n">
-        <v>2.8352843862848958E-9</v>
+        <v>2.4701860297326164E-10</v>
       </c>
       <c r="E46" t="n">
-        <v>6.495324330806051E-9</v>
+        <v>1.1497719644507399E-9</v>
       </c>
       <c r="F46" t="n">
-        <v>9.40264354438987E-9</v>
+        <v>2.195934494058515E-9</v>
       </c>
       <c r="G46" t="n">
-        <v>1.962259416491287E-7</v>
+        <v>1.0718290178226189E-10</v>
       </c>
       <c r="H46" t="n">
-        <v>1.757727045238813E-9</v>
+        <v>4.136955879221148E-12</v>
       </c>
       <c r="I46" t="n">
-        <v>1.7629679180204142E-8</v>
+        <v>3.0959817245726493E-10</v>
       </c>
       <c r="J46" t="n">
-        <v>8.35557710181127E-8</v>
+        <v>4.724329317936449E-9</v>
       </c>
       <c r="K46" t="n">
-        <v>3.183392418442659E-7</v>
+        <v>2.8782123483101325E-9</v>
       </c>
       <c r="L46" t="n">
-        <v>3.018914280467354E-9</v>
+        <v>3.594918039315307E-11</v>
       </c>
       <c r="M46" t="n">
-        <v>2.9669307295480504E-9</v>
+        <v>8.973992851357823E-11</v>
       </c>
       <c r="N46" t="n">
-        <v>8.36171858008462E-9</v>
+        <v>1.2184073245243911E-9</v>
       </c>
       <c r="O46" t="n">
-        <v>5.894495030056244E-9</v>
+        <v>2.934570159377322E-11</v>
       </c>
       <c r="P46" t="n">
-        <v>6.801056652063637E-14</v>
+        <v>6.361272099757052E-16</v>
       </c>
     </row>
     <row r="47">
@@ -2560,49 +2710,49 @@
         <v>60</v>
       </c>
       <c r="B47" t="n">
-        <v>1.20884219638485E-7</v>
+        <v>1.46533532974582E-9</v>
       </c>
       <c r="C47" t="n">
-        <v>3.2680117903341295E-8</v>
+        <v>1.2585856559941113E-9</v>
       </c>
       <c r="D47" t="n">
-        <v>1.6510197035559945E-8</v>
+        <v>1.5491204372351308E-9</v>
       </c>
       <c r="E47" t="n">
-        <v>5.743278918590666E-9</v>
+        <v>7.959973424483073E-11</v>
       </c>
       <c r="F47" t="n">
-        <v>4.675539715833684E-9</v>
+        <v>1.3318080086149003E-11</v>
       </c>
       <c r="G47" t="n">
-        <v>7.451050278342575E-9</v>
+        <v>8.040915729218858E-11</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7430374503980675E-10</v>
+        <v>8.470508396382724E-11</v>
       </c>
       <c r="I47" t="n">
-        <v>3.0130413886697464E-8</v>
+        <v>8.375733453935102E-11</v>
       </c>
       <c r="J47" t="n">
-        <v>3.734124151483893E-8</v>
+        <v>1.4954451165364875E-9</v>
       </c>
       <c r="K47" t="n">
-        <v>1.3343179333354926E-7</v>
+        <v>8.790344518723488E-8</v>
       </c>
       <c r="L47" t="n">
-        <v>3.559291534668983E-9</v>
+        <v>5.1878150677144995E-11</v>
       </c>
       <c r="M47" t="n">
-        <v>3.6018510841325776E-9</v>
+        <v>9.175350224375906E-12</v>
       </c>
       <c r="N47" t="n">
-        <v>1.732755718148271E-8</v>
+        <v>4.8815884615945065E-11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.9402618135817695E-9</v>
+        <v>2.504860459437057E-10</v>
       </c>
       <c r="P47" t="n">
-        <v>4.6101054711646663E-14</v>
+        <v>3.410685197503989E-13</v>
       </c>
     </row>
     <row r="48">
@@ -2610,49 +2760,49 @@
         <v>61</v>
       </c>
       <c r="B48" t="n">
-        <v>1.9167064943442657E-8</v>
+        <v>4.6293884472938624E-10</v>
       </c>
       <c r="C48" t="n">
-        <v>6.756844027322848E-8</v>
+        <v>2.99103030972574E-9</v>
       </c>
       <c r="D48" t="n">
-        <v>1.1327366708879649E-8</v>
+        <v>1.7892420910510292E-10</v>
       </c>
       <c r="E48" t="n">
-        <v>9.624221928979081E-8</v>
+        <v>2.8662903173987722E-11</v>
       </c>
       <c r="F48" t="n">
-        <v>4.391233837394632E-9</v>
+        <v>1.6711080708210253E-6</v>
       </c>
       <c r="G48" t="n">
-        <v>1.0985993235068004E-8</v>
+        <v>3.638369896965595E-11</v>
       </c>
       <c r="H48" t="n">
-        <v>8.793968006066199E-10</v>
+        <v>4.500676429578284E-11</v>
       </c>
       <c r="I48" t="n">
-        <v>1.9171023786690668E-8</v>
+        <v>4.074508124550494E-9</v>
       </c>
       <c r="J48" t="n">
-        <v>2.1460703371919696E-7</v>
+        <v>8.180569670649069E-10</v>
       </c>
       <c r="K48" t="n">
-        <v>4.2580549831503035E-7</v>
+        <v>6.505508490922788E-10</v>
       </c>
       <c r="L48" t="n">
-        <v>3.3662946496909548E-9</v>
+        <v>3.354962038481168E-10</v>
       </c>
       <c r="M48" t="n">
-        <v>2.6420863839608017E-9</v>
+        <v>2.283569141045373E-10</v>
       </c>
       <c r="N48" t="n">
-        <v>1.0895040487942956E-8</v>
+        <v>4.4708929715927374E-10</v>
       </c>
       <c r="O48" t="n">
-        <v>5.599426779644661E-10</v>
+        <v>8.261158335570905E-13</v>
       </c>
       <c r="P48" t="n">
-        <v>2.102871345600041E-13</v>
+        <v>1.6287212632809223E-16</v>
       </c>
     </row>
     <row r="49">
@@ -2660,49 +2810,49 @@
         <v>62</v>
       </c>
       <c r="B49" t="n">
-        <v>2.4154957173407318E-8</v>
+        <v>1.4280364231620682E-9</v>
       </c>
       <c r="C49" t="n">
-        <v>4.8520014469723807E-8</v>
+        <v>2.3479931924654673E-8</v>
       </c>
       <c r="D49" t="n">
-        <v>5.763522292229645E-9</v>
+        <v>5.186140238422976E-10</v>
       </c>
       <c r="E49" t="n">
-        <v>6.303457346571647E-9</v>
+        <v>8.126533305786323E-11</v>
       </c>
       <c r="F49" t="n">
-        <v>1.1255015473461239E-8</v>
+        <v>1.0083407960163728E-10</v>
       </c>
       <c r="G49" t="n">
-        <v>9.740182261476574E-9</v>
+        <v>1.275490283627587E-10</v>
       </c>
       <c r="H49" t="n">
-        <v>1.6517654111203053E-10</v>
+        <v>8.12725323097261E-11</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0897204242132116E-8</v>
+        <v>2.752033373764998E-10</v>
       </c>
       <c r="J49" t="n">
-        <v>3.801902016647321E-8</v>
+        <v>1.0779531330648054E-9</v>
       </c>
       <c r="K49" t="n">
-        <v>1.226373815090627E-6</v>
+        <v>1.832036695143638E-10</v>
       </c>
       <c r="L49" t="n">
-        <v>6.291241633217016E-9</v>
+        <v>1.0031627398410408E-11</v>
       </c>
       <c r="M49" t="n">
-        <v>1.2475258516098477E-8</v>
+        <v>3.444135780444494E-10</v>
       </c>
       <c r="N49" t="n">
-        <v>2.1079004526820742E-8</v>
+        <v>2.1125795432946252E-10</v>
       </c>
       <c r="O49" t="n">
-        <v>6.743604039410895E-10</v>
+        <v>1.2020597067756797E-11</v>
       </c>
       <c r="P49" t="n">
-        <v>2.370179735161384E-13</v>
+        <v>5.834312627311843E-16</v>
       </c>
     </row>
     <row r="50">
@@ -2710,49 +2860,49 @@
         <v>63</v>
       </c>
       <c r="B50" t="n">
-        <v>2.5318878262745833E-8</v>
+        <v>1.4139092330831744E-8</v>
       </c>
       <c r="C50" t="n">
-        <v>2.156548994637914E-8</v>
+        <v>8.79164867064441E-10</v>
       </c>
       <c r="D50" t="n">
-        <v>6.372130962286528E-9</v>
+        <v>3.665299021572074E-10</v>
       </c>
       <c r="E50" t="n">
-        <v>5.191417642400161E-9</v>
+        <v>1.3226671267673485E-8</v>
       </c>
       <c r="F50" t="n">
-        <v>2.7156593804380983E-9</v>
+        <v>9.99429704715388E-11</v>
       </c>
       <c r="G50" t="n">
-        <v>2.4843359141420007E-8</v>
+        <v>1.2663395032443093E-9</v>
       </c>
       <c r="H50" t="n">
-        <v>1.768460535035812E-10</v>
+        <v>1.286885992839242E-11</v>
       </c>
       <c r="I50" t="n">
-        <v>1.8947364703349757E-8</v>
+        <v>1.6570239455096922E-9</v>
       </c>
       <c r="J50" t="n">
-        <v>3.8389711783559235E-8</v>
+        <v>2.4119677550428615E-9</v>
       </c>
       <c r="K50" t="n">
-        <v>8.508294184355487E-7</v>
+        <v>2.932729861540925E-8</v>
       </c>
       <c r="L50" t="n">
-        <v>7.0702565978860826E-9</v>
+        <v>4.6564623849430034E-10</v>
       </c>
       <c r="M50" t="n">
-        <v>1.3106762908593267E-8</v>
+        <v>6.278226678092024E-11</v>
       </c>
       <c r="N50" t="n">
-        <v>9.328565177813837E-8</v>
+        <v>1.61099770407261E-10</v>
       </c>
       <c r="O50" t="n">
-        <v>3.5901453129604876E-10</v>
+        <v>4.071371973635073E-10</v>
       </c>
       <c r="P50" t="n">
-        <v>1.3194138250433486E-13</v>
+        <v>1.6944828147348993E-15</v>
       </c>
     </row>
     <row r="51">
@@ -2760,49 +2910,2549 @@
         <v>64</v>
       </c>
       <c r="B51" t="n">
-        <v>9.393290699767413E-8</v>
+        <v>1.8455671430546654E-9</v>
       </c>
       <c r="C51" t="n">
-        <v>2.3210850075316876E-8</v>
+        <v>1.9088187933641045E-9</v>
       </c>
       <c r="D51" t="n">
-        <v>5.3838994871149545E-9</v>
+        <v>1.6239478552263119E-9</v>
       </c>
       <c r="E51" t="n">
-        <v>3.4426644787783716E-9</v>
+        <v>4.371753041869466E-9</v>
       </c>
       <c r="F51" t="n">
-        <v>3.7644030779003364E-9</v>
+        <v>1.3020988358132513E-9</v>
       </c>
       <c r="G51" t="n">
-        <v>1.5093656840473655E-8</v>
+        <v>8.395910116967248E-10</v>
       </c>
       <c r="H51" t="n">
-        <v>1.1379009153661118E-9</v>
+        <v>4.32935772344461E-11</v>
       </c>
       <c r="I51" t="n">
-        <v>1.9067124420933474E-8</v>
+        <v>7.012151592162461E-9</v>
       </c>
       <c r="J51" t="n">
-        <v>2.2264787352725078E-7</v>
+        <v>7.740805359281611E-9</v>
       </c>
       <c r="K51" t="n">
-        <v>9.275389671167709E-7</v>
+        <v>6.360078612877059E-10</v>
       </c>
       <c r="L51" t="n">
-        <v>5.443901526943045E-9</v>
+        <v>1.4728941429930546E-10</v>
       </c>
       <c r="M51" t="n">
-        <v>4.9003182254480235E-9</v>
+        <v>4.668958171805937E-11</v>
       </c>
       <c r="N51" t="n">
-        <v>1.8869644870009684E-8</v>
+        <v>3.0818638562755957E-10</v>
       </c>
       <c r="O51" t="n">
-        <v>5.251671184371373E-10</v>
+        <v>1.9182530980654548E-12</v>
       </c>
       <c r="P51" t="n">
-        <v>9.12142364055956E-13</v>
+        <v>1.365133668636328E-15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.188727432213177E-10</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.372565403909084E-9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>7.39417607813235E-11</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6.230461527575714E-10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.862430735616701E-11</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.1632383312853394E-9</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4.048218578739942E-12</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.0271346703439385E-9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.08057424433822E-10</v>
+      </c>
+      <c r="K52" t="n">
+        <v>7.786614168056751E-9</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.5539795556610623E-9</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4.526240632673992E-11</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.0355506677154317E-11</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.2960668628906713E-11</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.6194651055339829E-15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7.315148215295176E-10</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.711734752818153E-10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8.163301507895159E-10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.975080420099993E-11</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.076196947579182E-11</v>
+      </c>
+      <c r="G53" t="n">
+        <v>7.807480429334581E-10</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.4778038127956448E-12</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.0292366864553381E-9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9.453746093482424E-8</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6.127947934214241E-8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2.826225947356482E-11</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.4320953166182008E-10</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.369602289359728E-11</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6.5972819965198095E-12</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4.469909671917704E-16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.3902377352177802E-8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.0111646648878147E-8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.597080321620234E-11</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6.416157811331072E-11</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.9070035720748297E-11</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.4458884045619214E-10</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.417252822474357E-12</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.134942591944371E-10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.5276885514802028E-9</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.349481927928156E-7</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.023557586123138E-10</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.3162501005087693E-9</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.5106972226104294E-10</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3.6177596079555385E-13</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4.813686186135894E-16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="n">
+        <v>9.855785911618105E-10</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.8654396983319835E-10</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.8953855586220246E-10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.7378730259003284E-10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7.005815116820561E-11</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.431953964073698E-10</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.5396718205060855E-12</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.276105348564412E-11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.7294975981235605E-10</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.493928465361643E-10</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.1976488904129356E-10</v>
+      </c>
+      <c r="M55" t="n">
+        <v>7.610677917716217E-12</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.0574631163716808E-9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3.211378217510326E-13</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5.744236614411889E-17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.950399747796118E-10</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.1886623688227162E-8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.429290909389501E-10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6.185380328171336E-12</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.6208015137946183E-10</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7.46879857610074E-11</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5.446410830212741E-12</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6.402431814724554E-10</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.819304794750495E-9</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.350119738676395E-9</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2.580473855925061E-11</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.3187679825948182E-10</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.849218178301227E-10</v>
+      </c>
+      <c r="O56" t="n">
+        <v>8.808714541561446E-13</v>
+      </c>
+      <c r="P56" t="n">
+        <v>7.939498120410148E-16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.105019062816362E-10</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9.007282888569724E-10</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.521284495179903E-10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7.310860079490013E-11</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.186520546200046E-11</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.0933033793863296E-10</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.5469586025083118E-10</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.0989854817239056E-10</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.842642643467134E-10</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.367611719695909E-10</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.1436905408875325E-9</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.5412182782207525E-11</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.361842571885284E-10</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.2327082471109187E-12</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3.5004716169520046E-16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.1581736679464147E-9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.847058344979754E-10</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.4463843425568183E-10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.9042963002481873E-10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.7436649765907166E-10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.200820545091932E-10</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.6867007192636897E-11</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.867928040838046E-11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.9923570227363386E-9</v>
+      </c>
+      <c r="K58" t="n">
+        <v>8.493181500560455E-11</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.1560144410765561E-11</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.7424459570435265E-10</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.770963419579455E-11</v>
+      </c>
+      <c r="O58" t="n">
+        <v>6.070454485767757E-13</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.6062502961514781E-16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7.439676683577191E-10</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.7264761732693585E-9</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7.639040654651033E-11</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.317677120026278E-9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.724617818376972E-11</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.866172641000683E-11</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.463645665134736E-12</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7.891068554804474E-8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.1744651144740918E-9</v>
+      </c>
+      <c r="K59" t="n">
+        <v>8.750400718390466E-10</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.077561869144988E-10</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.8750544140732223E-10</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.5925351760122716E-10</v>
+      </c>
+      <c r="O59" t="n">
+        <v>6.480711697122656E-13</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.326797678863219E-15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6.526506214532636E-8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.6295524146086293E-9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.1754352726757115E-10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.289116345259863E-9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.6556778946631197E-10</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6.6603076972355E-10</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.1999680538410494E-11</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8.135888326863262E-11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.8823745436938133E-8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.5668457164937485E-10</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.485720165621947E-11</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4.0866715112689893E-10</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9.043657481692139E-11</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2.0713307449782271E-13</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.2334175825945995E-15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2.660035732708342E-8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7.401884980271859E-9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8.57795813436902E-11</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.0563083511864196E-10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.439418562977223E-9</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.7187853177037007E-10</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.2356425940768776E-12</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8.536079314129081E-11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.367488777291389E-10</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.8547671094751633E-10</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.80160121893583E-12</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.73565904825266E-10</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.1381680127421988E-8</v>
+      </c>
+      <c r="O61" t="n">
+        <v>5.742665443315954E-13</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6.949161642596279E-16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9.557651054435747E-9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.229062164755373E-9</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.914605524929549E-10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8.769029769754146E-11</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7.904543079021371E-10</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6.088647579178452E-10</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.3226326664474585E-10</v>
+      </c>
+      <c r="I62" t="n">
+        <v>8.064284754886734E-10</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.5055358449352549E-9</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.6888804231094386E-9</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6.94880695394184E-9</v>
+      </c>
+      <c r="M62" t="n">
+        <v>6.11102848865126E-10</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4.5158885159574925E-9</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.2320284919280037E-12</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.0232801777547819E-16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5.332374883008865E-10</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.622660270506784E-9</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.7362483236903119E-10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.0751460274207E-11</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4.236701995761108E-10</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.4963171409679946E-9</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.59099745348803E-12</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.3633737415685916E-9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6.328374211811955E-9</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.1162996404754642E-7</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.2620731301810842E-10</v>
+      </c>
+      <c r="M63" t="n">
+        <v>7.853173640913636E-11</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5.621626429649305E-10</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6.133504795663156E-11</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.2816558453378393E-15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.6175211628291438E-9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.67357902310187E-8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.495719866864182E-10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.154492244009625E-9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.753442672705299E-9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.4091753038334211E-9</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.9688543091449044E-9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9.350494888787785E-9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4.74945679389737E-9</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.5139906513247646E-9</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.655564147855551E-11</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.2543409520541766E-10</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.2202352580231835E-10</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.4231313362302974E-10</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3.099219192756795E-16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.4110452396560759E-8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.899561732871821E-9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.8543128065430253E-10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.891518862357086E-11</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6.515451322457232E-12</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.4173642565668443E-10</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.556343846308312E-12</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7.907111057735507E-10</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.11663962838916E-10</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4.037951642638702E-9</v>
+      </c>
+      <c r="L65" t="n">
+        <v>8.880303034910702E-10</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4.4355079988954567E-10</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.5282919933563246E-9</v>
+      </c>
+      <c r="O65" t="n">
+        <v>4.472960802762915E-12</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4.792002222582126E-16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.101208714157488E-9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.1698021456438186E-9</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.4527190591717636E-10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.1640036969150226E-11</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.0254516105168367E-11</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9.53544097829809E-10</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7.605917285025041E-12</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.9581060798012615E-9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.3816953731963893E-10</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.444151853484178E-11</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3.6906567646046183E-10</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.5505694860138583E-11</v>
+      </c>
+      <c r="N66" t="n">
+        <v>8.123550440626168E-10</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.6997615344236512E-12</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3.323766393359195E-16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0983168456064397E-9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.392069532405274E-10</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7.038418127876246E-10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.2630186547443775E-10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.7281360046928854E-10</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7.284241115971555E-11</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8.230006188828914E-13</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.6931026053525146E-9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.926331907664177E-9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.6026031706874176E-10</v>
+      </c>
+      <c r="L67" t="n">
+        <v>6.892205151645559E-10</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.1174322093275631E-10</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.3191024993695576E-9</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.6824940240186057E-12</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.0002502211610592E-16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8.881761357487062E-9</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.3647381590990467E-8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.1243379688674827E-9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.5692340136542826E-11</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.8807857124132107E-9</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.7250963966368287E-10</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6.1076993368183134E-12</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.3356191473947373E-9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.247165596086321E-9</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6.585283814767299E-9</v>
+      </c>
+      <c r="L68" t="n">
+        <v>6.460600426554973E-11</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.9474555190753545E-10</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.2319918612734976E-10</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.502251765985242E-11</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2.2998898139065654E-15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.873276787131052E-6</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.330385781595886E-8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7.0346653808394E-10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.3945654434518913E-10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5.095972961209688E-10</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.3764823656659946E-10</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.2687033836984174E-12</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.3820936298106433E-9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.1710462135306484E-9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>8.860122753867057E-8</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.359125465777496E-10</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3.746776511393525E-11</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4.917588692682851E-9</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.6709061108128644E-9</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.5714117151908258E-15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9.65997902776516E-9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.582444593201991E-9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.4742479391978957E-10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.707010586023761E-10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.2536776378005489E-9</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.1886004925518378E-8</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.6285780620279053E-11</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.4409223918659597E-9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.81028757496687E-7</v>
+      </c>
+      <c r="K70" t="n">
+        <v>4.949675405084332E-7</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4.1896191300658146E-11</v>
+      </c>
+      <c r="M70" t="n">
+        <v>9.621657977069854E-11</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.1643091133280514E-9</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2.5620472755548783E-11</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2.8773550797645814E-15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.5281165472194086E-9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5.554484528784935E-10</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.458650118346677E-10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.17143949539312E-11</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.1460455448164686E-9</v>
+      </c>
+      <c r="G71" t="n">
+        <v>9.198234609832648E-10</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.7023801624702227E-11</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.947466409664707E-10</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.1519414219534113E-8</v>
+      </c>
+      <c r="K71" t="n">
+        <v>6.910893564809733E-7</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.9236258708736252E-10</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4.961475118146836E-9</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.4695208374142966E-9</v>
+      </c>
+      <c r="O71" t="n">
+        <v>7.905901635761803E-12</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3.140698785459444E-14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.0184956834402918E-9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.0475237647499702E-9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.5423049627164384E-10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.5376856554422868E-9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.7500615477455437E-10</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.7173506208120776E-9</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.7886913782882616E-11</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.9589275863916957E-8</v>
+      </c>
+      <c r="J72" t="n">
+        <v>9.917342180896219E-10</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8.689136791670374E-9</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.5716875427936984E-10</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.6132558577735493E-9</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.2305927118607627E-10</v>
+      </c>
+      <c r="O72" t="n">
+        <v>3.866743050803901E-12</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2.19500896140916E-14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.3674497273592686E-8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>8.965889867949658E-8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.8221083589551685E-10</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.5994254383950087E-11</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8.557832279501831E-12</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.2126916031689595E-8</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.7729128284502283E-12</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.0830405262697973E-8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.608723065278849E-8</v>
+      </c>
+      <c r="K73" t="n">
+        <v>8.517410571171481E-10</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.3347403823794485E-10</v>
+      </c>
+      <c r="M73" t="n">
+        <v>7.541459415982237E-11</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.1401258369803513E-9</v>
+      </c>
+      <c r="O73" t="n">
+        <v>9.649019941612287E-10</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4.689414859081294E-16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4.292205203406361E-9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.0306305429672697E-10</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.6161661526274148E-9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.0306221612014144E-10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.274152402296123E-9</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.2993269859241898E-10</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.321412970429192E-11</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.813254179358631E-10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.3819332277228847E-8</v>
+      </c>
+      <c r="K74" t="n">
+        <v>7.598951804301643E-10</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.676904412656116E-11</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.9238738104573102E-9</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4.349085550423258E-9</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3.4061742782957298E-12</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2.0179137782445996E-16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.4861882289825313E-9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.2183831109581772E-9</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9.536262619712427E-9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5.761457538628638E-10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.63765964377912E-11</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6.816183932868932E-10</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8.290881279115713E-12</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.7435406672516005E-11</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4.000227791617123E-9</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.6629056720485286E-8</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3.5898695579628914E-10</v>
+      </c>
+      <c r="M75" t="n">
+        <v>8.338253643037863E-11</v>
+      </c>
+      <c r="N75" t="n">
+        <v>8.280092529927584E-11</v>
+      </c>
+      <c r="O75" t="n">
+        <v>7.280789835865238E-9</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4.430821063404991E-15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.3502686496694629E-9</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.35867439880657E-10</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.0424038949606692E-8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9.825199925504139E-11</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.1941110994173516E-11</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.2449745196322295E-9</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.993767259355182E-10</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.885543678571666E-9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.0360434351507964E-9</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6.332187193720126E-10</v>
+      </c>
+      <c r="L76" t="n">
+        <v>9.338583769467333E-11</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3.1862974089285027E-10</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2.2377551955403153E-9</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2.8026968805086502E-11</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2.462890451399829E-17</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.6415673548558757E-10</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.55922216409506E-7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.299927249295412E-10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5.820026859647575E-11</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.5716822385188827E-10</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4.0223227156457936E-11</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.5665145829873103E-12</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.294236980538098E-9</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4.1421936965935554E-7</v>
+      </c>
+      <c r="K77" t="n">
+        <v>6.5890350396616815E-9</v>
+      </c>
+      <c r="L77" t="n">
+        <v>4.787071960816132E-10</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4.742054623154546E-10</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.3725151860833032E-11</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.8808974680178835E-12</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3.017179156267366E-16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.9685699681556816E-10</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.2451555125603098E-9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.0752023596892797E-9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.325008114635456E-11</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.1389668060667962E-11</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.3702835065395863E-10</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6.074124198270449E-11</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.670269639593733E-8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.116483877998438E-8</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.6652807219246307E-7</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5.501799821278813E-11</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.8576735177725318E-10</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.721086103405171E-9</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2.347121655689057E-10</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3.447683397174701E-15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5.748851327135221E-10</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.0630522118419764E-10</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.716311810105076E-10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.0402907831305194E-10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5.739593002544176E-10</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4.018014006779813E-11</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.3745215132250416E-10</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.6784290879257E-10</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.492699181109504E-8</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2.372556281047972E-9</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2.423843182815129E-8</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4.777227785922986E-11</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2.325868180294908E-10</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.625588373907018E-10</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5.7711771634756554E-15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.882080944952548E-10</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.6245395532060505E-8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6.089134030629072E-10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.4249006936500598E-10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8.677484684704367E-11</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.246164260766253E-10</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3.893232936521533E-12</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.638356059049143E-10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.9462865702521806E-9</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2.0072319041425934E-10</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2.6214182109254147E-10</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5.008011806889333E-11</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2.7128127763976633E-8</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4.76179120886586E-12</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4.591449426054364E-16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4.633561312323414E-10</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.1620276808853597E-10</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.170799074744942E-11</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.149109645244019E-11</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.2527940342338632E-10</v>
+      </c>
+      <c r="G81" t="n">
+        <v>8.12754078215614E-11</v>
+      </c>
+      <c r="H81" t="n">
+        <v>7.817765286039218E-13</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.3044134061487661E-9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>7.008081483656121E-11</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.2540957997678773E-9</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2.1296349431620665E-11</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.1832243568544022E-10</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2.883325364360364E-10</v>
+      </c>
+      <c r="O81" t="n">
+        <v>8.668840140730685E-11</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.2005087275511533E-14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.7664030389642188E-9</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.0006793209517207E-9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.439277890675404E-11</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9.00133468794334E-11</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6.92198403833459E-11</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.6725703854545943E-10</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.0499295694504226E-12</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5.829467894542451E-10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.0565367756896512E-8</v>
+      </c>
+      <c r="K82" t="n">
+        <v>9.257379083574153E-10</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4.987099648411253E-11</v>
+      </c>
+      <c r="M82" t="n">
+        <v>8.4382791672404E-12</v>
+      </c>
+      <c r="N82" t="n">
+        <v>6.627801301812447E-11</v>
+      </c>
+      <c r="O82" t="n">
+        <v>9.943817400587875E-13</v>
+      </c>
+      <c r="P82" t="n">
+        <v>8.453716938251499E-16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.91444148751466E-9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.500532102392778E-9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.241839620043479E-10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7.067701394766242E-11</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.4121412013557304E-10</v>
+      </c>
+      <c r="G83" t="n">
+        <v>7.264930056594088E-10</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.4392441815923716E-11</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.6167714121646594E-9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4.3723373974185695E-10</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.2927617355544978E-8</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.515450904981687E-10</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5.463792863611791E-10</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.1328003370980634E-9</v>
+      </c>
+      <c r="O83" t="n">
+        <v>9.58480290103707E-13</v>
+      </c>
+      <c r="P83" t="n">
+        <v>9.049068526922913E-16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.699200334524267E-9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.3360942868533802E-9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.6739654965574285E-10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.182558630197038E-10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.2664150837868094E-9</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.541871156004543E-10</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6.612158337872441E-10</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.149776852923573E-9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4.221271029924996E-9</v>
+      </c>
+      <c r="K84" t="n">
+        <v>5.751529681120393E-10</v>
+      </c>
+      <c r="L84" t="n">
+        <v>8.293457796871513E-12</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.000076060245052E-9</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.6739736281957813E-10</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.7783289891264023E-12</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.5034056675909305E-15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.962664966316699E-10</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.4020485138113416E-8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.3482212241219195E-10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.204713061176902E-11</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.546209697344506E-10</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.8672474545786456E-10</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.0553060005411704E-12</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.7737077086370883E-10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5.15130554138091E-10</v>
+      </c>
+      <c r="K85" t="n">
+        <v>7.937463025135633E-10</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4.571922390103148E-10</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3.042712427486941E-8</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4.6998442893030986E-11</v>
+      </c>
+      <c r="O85" t="n">
+        <v>8.835232051313446E-13</v>
+      </c>
+      <c r="P85" t="n">
+        <v>8.84275180139643E-16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6.4857867988436205E-9</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.2375972216263917E-8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7.198913292728969E-11</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9.628098110802082E-10</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.183166352756852E-11</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.5129145684958949E-9</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3.4429644156019518E-12</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.912595106127973E-10</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.0596919854536862E-9</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.3759206605284356E-9</v>
+      </c>
+      <c r="L86" t="n">
+        <v>9.648229564188302E-11</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5.417483429896063E-11</v>
+      </c>
+      <c r="N86" t="n">
+        <v>7.850774399830853E-9</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.505836616278214E-12</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.7152022567653816E-14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.986503915443552E-8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.944759736251964E-9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.785085238197411E-9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.696702804335899E-10</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.685204089956127E-10</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.6110341674755915E-9</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8.293251986670194E-12</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.5837256578450107E-10</v>
+      </c>
+      <c r="J87" t="n">
+        <v>9.616418505075717E-9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4.6996460165748925E-9</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5.982674534224477E-8</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4.5412604862809686E-10</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3.283673058371821E-8</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3.6295677673509342E-12</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4.863357566058724E-16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5.741131685486404E-10</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.3624070607977595E-8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.398432019783944E-9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.032421695919763E-10</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6.07876424803144E-10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.443573794980871E-10</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.6751215762173366E-12</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.386172600492646E-9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5.4496396229381784E-8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.1446311120628875E-6</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.155614934244151E-9</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.3195956455159834E-11</v>
+      </c>
+      <c r="N88" t="n">
+        <v>8.828549659286631E-10</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.0947511004674974E-13</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3.584484741309756E-15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.129434964959469E-10</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.04607510916046E-11</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.3604422627587636E-10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.3577833831454416E-11</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.3241346970870486E-10</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6.367108056481224E-11</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4.356743971422599E-11</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.0996138883446224E-9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>7.814399064861728E-9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.7668358521471308E-9</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.5695014803979718E-11</v>
+      </c>
+      <c r="M89" t="n">
+        <v>7.618768590347284E-11</v>
+      </c>
+      <c r="N89" t="n">
+        <v>7.607984748132196E-10</v>
+      </c>
+      <c r="O89" t="n">
+        <v>8.457539877405016E-12</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2.774920126826709E-14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2.664931848374544E-10</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.4173097016243004E-11</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6.242425379922652E-11</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.4667854969889387E-11</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.734200901287279E-11</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.442443015150975E-10</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.0452007950479503E-12</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.9129089558130427E-10</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.86084340225824E-10</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3.4288582726032057E-9</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.0249480151353934E-10</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.5747840939377797E-10</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.1643832542068392E-9</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3.927312361352077E-12</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.2375709484294177E-15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5.491457202226122E-9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.288302442499084E-10</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.4235248033729153E-9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8.462265754737168E-11</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.89121259110066E-10</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.7062984257441409E-9</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.8485349436061824E-11</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.343578988784521E-10</v>
+      </c>
+      <c r="J91" t="n">
+        <v>8.15844511914532E-10</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.0116966724421323E-7</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2.811815658342963E-9</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3.464395806755183E-12</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2.306438413506742E-8</v>
+      </c>
+      <c r="O91" t="n">
+        <v>4.991375059655589E-13</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.2095982402775208E-15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.637413637216875E-10</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.2545350308997957E-8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.965860101163614E-10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.254849504017658E-10</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.9272022574913692E-11</v>
+      </c>
+      <c r="G92" t="n">
+        <v>9.332311245554405E-10</v>
+      </c>
+      <c r="H92" t="n">
+        <v>7.512955835048274E-13</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.0466448106363295E-10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.8997060208171892E-10</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.0252512808965646E-8</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4.638723800864968E-8</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.5850624998149703E-10</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3.3752935536207137E-10</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.1991303949081311E-11</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2.231089889962589E-15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2.908144574331381E-10</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.665677165032029E-10</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.109627214102215E-10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.93847329330687E-11</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.4746939258675635E-10</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.899733073884949E-10</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3.5118792784587315E-13</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5.532457124769664E-10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.798312008984716E-10</v>
+      </c>
+      <c r="K93" t="n">
+        <v>5.0277104679313795E-11</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.3743070465875131E-10</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.3745324994680208E-11</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.781459617987219E-10</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2.9293793357911804E-12</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.3766343327281232E-16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.80739527875325E-10</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3.79396804903961E-10</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.121371125305456E-11</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.697157979245889E-11</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.729488538788415E-10</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3.9591370502780906E-11</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6.083087136027482E-13</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.244834762460629E-10</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5.095066267748215E-8</v>
+      </c>
+      <c r="K94" t="n">
+        <v>7.031522430610299E-10</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.235138709297549E-11</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3.5512886989718685E-10</v>
+      </c>
+      <c r="N94" t="n">
+        <v>9.508285269078148E-11</v>
+      </c>
+      <c r="O94" t="n">
+        <v>8.703348759207804E-14</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4.074181788432153E-17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.606917049123292E-10</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.4348957998984537E-10</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.9695894008431066E-10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.3742550918860899E-9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.6506738382341969E-9</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5.44368527281518E-12</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.3233268276818776E-12</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.287115737391446E-11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>7.904257438255554E-11</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3.8377245498826364E-11</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.624832011854521E-10</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2.121288545705189E-10</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5.99469460876624E-11</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2.3617201561157305E-9</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4.181730990881175E-16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.475535024965512E-9</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3.0942986950314974E-11</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.6489862099800098E-10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.5389632943905104E-11</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.804390489338279E-12</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.2811112891284299E-9</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4.395762690268391E-12</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.799869666402551E-10</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.8591645173031083E-10</v>
+      </c>
+      <c r="K96" t="n">
+        <v>6.588493375729073E-10</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.1797607777221715E-9</v>
+      </c>
+      <c r="M96" t="n">
+        <v>8.332445558360614E-9</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4.756227154822659E-10</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.0253041368906601E-10</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2.7452308916417716E-17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.2063902007161548E-9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9.382295127939753E-9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9.555055632621652E-11</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.017574906792694E-10</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7.342492186902674E-10</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.018306363859272E-8</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5.139132746556552E-12</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2.838925752003936E-10</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.036522030171095E-9</v>
+      </c>
+      <c r="K97" t="n">
+        <v>6.838758199626997E-9</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6.525240364731577E-10</v>
+      </c>
+      <c r="M97" t="n">
+        <v>8.555800687055824E-10</v>
+      </c>
+      <c r="N97" t="n">
+        <v>7.156804436103349E-9</v>
+      </c>
+      <c r="O97" t="n">
+        <v>7.169444836400842E-13</v>
+      </c>
+      <c r="P97" t="n">
+        <v>6.810178188302248E-16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.683413676847479E-9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.707407619274003E-9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8.878220272685011E-11</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.8887338214467766E-11</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.8587426848350804E-10</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.706524222382781E-10</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8.048560161592936E-12</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5.053349839703291E-10</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6.132694889585612E-9</v>
+      </c>
+      <c r="K98" t="n">
+        <v>7.356674478151493E-10</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2.62294262070196E-11</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2.2421036262468453E-10</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2.510421042561772E-9</v>
+      </c>
+      <c r="O98" t="n">
+        <v>3.03364180163863E-12</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.4946976103127E-15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7.873040827713863E-9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.5391231302388381E-9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.639859751017337E-11</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.2174170874937992E-10</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7.289466110105522E-11</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4.763347974471384E-10</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5.3086405404653696E-12</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.2151737361567408E-10</v>
+      </c>
+      <c r="J99" t="n">
+        <v>8.263386578226715E-8</v>
+      </c>
+      <c r="K99" t="n">
+        <v>7.959822809667801E-10</v>
+      </c>
+      <c r="L99" t="n">
+        <v>4.401044392146873E-11</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3.2222627860811565E-10</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3.573608270740094E-11</v>
+      </c>
+      <c r="O99" t="n">
+        <v>5.798300268681462E-11</v>
+      </c>
+      <c r="P99" t="n">
+        <v>8.409122559298843E-17</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2.787735458298382E-10</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.602220765016596E-8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.848927930526255E-9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.4355762046258743E-9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.3854070422221597E-11</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.6002988168592516E-10</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5.506826640795595E-12</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7.194562107755713E-9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>8.456176533284948E-10</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.2618645036241494E-9</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.0409022275038687E-9</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5.2215067284547976E-11</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4.150690622227331E-9</v>
+      </c>
+      <c r="O100" t="n">
+        <v>8.86197891881657E-12</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2.1452763295023957E-16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.4751278545322044E-10</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9.999233404063423E-9</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.824449999104871E-10</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.388042170919633E-11</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.761069917811405E-11</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5.22809522061252E-10</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.24706117657312E-10</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.1439345389645163E-10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>7.437786226618755E-11</v>
+      </c>
+      <c r="K101" t="n">
+        <v>7.171603258406845E-10</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4.1726316297586415E-12</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.2167072735050901E-11</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.4934232380231492E-10</v>
+      </c>
+      <c r="O101" t="n">
+        <v>6.731681609820949E-13</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5.934132605062898E-16</v>
       </c>
     </row>
   </sheetData>
